--- a/SA/results/SummarySA.xlsx
+++ b/SA/results/SummarySA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\w63x712\Documents\Machine_Learning\HSI_selection2\SA\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4241BFFE-1160-4652-AFB8-5653BB362327}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E122C849-0EF1-40F2-A5D6-4B28F62B7DFE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{D4E1857A-7969-4B6E-A5E0-8AB94818FDA4}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="360">
   <si>
     <t>SVM</t>
   </si>
@@ -1014,6 +1014,111 @@
   </si>
   <si>
     <t>Ttest_relResult(statistic=9.829515180873116, pvalue=4.128083720628762e-06)</t>
+  </si>
+  <si>
+    <t>Variance (Train)</t>
+  </si>
+  <si>
+    <t>Variance (Test)</t>
+  </si>
+  <si>
+    <t>IBRA + PCA</t>
+  </si>
+  <si>
+    <t>96.101% (+/- 0.782%)</t>
+  </si>
+  <si>
+    <t>98.231% (+/- 0.342%)</t>
+  </si>
+  <si>
+    <t>98.138% (+/- 0.493%)</t>
+  </si>
+  <si>
+    <t>98.160% (+/- 0.449%)</t>
+  </si>
+  <si>
+    <t>94.867% (+/- 0.959%)</t>
+  </si>
+  <si>
+    <t>97.354% (+/- 0.842%)</t>
+  </si>
+  <si>
+    <t>97.108% (+/- 1.190%)</t>
+  </si>
+  <si>
+    <t>97.163% (+/- 1.123%)</t>
+  </si>
+  <si>
+    <t>93.789% (+/- 1.210%)</t>
+  </si>
+  <si>
+    <t>96.901% (+/- 0.850%)</t>
+  </si>
+  <si>
+    <t>96.484% (+/- 1.449%)</t>
+  </si>
+  <si>
+    <t>96.634% (+/- 1.232%)</t>
+  </si>
+  <si>
+    <t>92.541% (+/- 0.518%)</t>
+  </si>
+  <si>
+    <t>96.143% (+/- 0.368%)</t>
+  </si>
+  <si>
+    <t>95.892% (+/- 0.531%)</t>
+  </si>
+  <si>
+    <t>95.983% (+/- 0.463%)</t>
+  </si>
+  <si>
+    <t>98.485% (+/- 0.163%)</t>
+  </si>
+  <si>
+    <t>99.394% (+/- 0.073%)</t>
+  </si>
+  <si>
+    <t>99.392% (+/- 0.065%)</t>
+  </si>
+  <si>
+    <t>99.392% (+/- 0.064%)</t>
+  </si>
+  <si>
+    <t>97.959% (+/- 0.232%)</t>
+  </si>
+  <si>
+    <t>99.140% (+/- 0.113%)</t>
+  </si>
+  <si>
+    <t>99.145% (+/- 0.102%)</t>
+  </si>
+  <si>
+    <t>99.141% (+/- 0.104%)</t>
+  </si>
+  <si>
+    <t>97.197% (+/- 0.259%)</t>
+  </si>
+  <si>
+    <t>98.813% (+/- 0.089%)</t>
+  </si>
+  <si>
+    <t>98.807% (+/- 0.099%)</t>
+  </si>
+  <si>
+    <t>98.807% (+/- 0.089%)</t>
+  </si>
+  <si>
+    <t>96.073% (+/- 0.372%)</t>
+  </si>
+  <si>
+    <t>98.228% (+/- 0.223%)</t>
+  </si>
+  <si>
+    <t>98.152% (+/- 0.250%)</t>
+  </si>
+  <si>
+    <t>98.184% (+/- 0.228%)</t>
   </si>
 </sst>
 </file>
@@ -1129,7 +1234,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1187,18 +1292,21 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1212,6 +1320,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1234,17 +1354,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1636,7 +1747,7 @@
   <dimension ref="B3:G72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1659,102 +1770,102 @@
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="38" t="s">
+      <c r="C5" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="38" t="s">
+      <c r="D5" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="38" t="s">
+      <c r="E5" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="38" t="s">
+      <c r="F5" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="38" t="s">
+      <c r="G5" s="23" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B6" s="38">
+      <c r="B6" s="23">
         <v>12</v>
       </c>
-      <c r="C6" s="38" t="s">
+      <c r="C6" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="38" t="s">
+      <c r="D6" s="23" t="s">
         <v>206</v>
       </c>
-      <c r="E6" s="38" t="s">
+      <c r="E6" s="23" t="s">
         <v>207</v>
       </c>
-      <c r="F6" s="38" t="s">
+      <c r="F6" s="23" t="s">
         <v>208</v>
       </c>
-      <c r="G6" s="38" t="s">
+      <c r="G6" s="23" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B7" s="38">
+      <c r="B7" s="23">
         <v>11</v>
       </c>
-      <c r="C7" s="38" t="s">
+      <c r="C7" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="D7" s="38" t="s">
+      <c r="D7" s="23" t="s">
         <v>215</v>
       </c>
-      <c r="E7" s="38" t="s">
+      <c r="E7" s="23" t="s">
         <v>216</v>
       </c>
-      <c r="F7" s="38" t="s">
+      <c r="F7" s="23" t="s">
         <v>217</v>
       </c>
-      <c r="G7" s="38" t="s">
+      <c r="G7" s="23" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B8" s="38">
+      <c r="B8" s="23">
         <v>10</v>
       </c>
-      <c r="C8" s="38" t="s">
+      <c r="C8" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="D8" s="38" t="s">
+      <c r="D8" s="23" t="s">
         <v>236</v>
       </c>
-      <c r="E8" s="38" t="s">
+      <c r="E8" s="23" t="s">
         <v>237</v>
       </c>
-      <c r="F8" s="38" t="s">
+      <c r="F8" s="23" t="s">
         <v>238</v>
       </c>
-      <c r="G8" s="38" t="s">
+      <c r="G8" s="23" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B9" s="38">
+      <c r="B9" s="23">
         <v>9</v>
       </c>
-      <c r="C9" s="38" t="s">
+      <c r="C9" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="D9" s="38" t="s">
+      <c r="D9" s="23" t="s">
         <v>236</v>
       </c>
-      <c r="E9" s="38" t="s">
+      <c r="E9" s="23" t="s">
         <v>237</v>
       </c>
-      <c r="F9" s="38" t="s">
+      <c r="F9" s="23" t="s">
         <v>238</v>
       </c>
-      <c r="G9" s="38" t="s">
+      <c r="G9" s="23" t="s">
         <v>239</v>
       </c>
     </row>
@@ -1779,87 +1890,87 @@
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B11" s="38">
+      <c r="B11" s="23">
         <v>7</v>
       </c>
-      <c r="C11" s="38" t="s">
+      <c r="C11" s="23" t="s">
         <v>167</v>
       </c>
-      <c r="D11" s="38" t="s">
+      <c r="D11" s="23" t="s">
         <v>285</v>
       </c>
-      <c r="E11" s="38" t="s">
+      <c r="E11" s="23" t="s">
         <v>286</v>
       </c>
-      <c r="F11" s="38" t="s">
+      <c r="F11" s="23" t="s">
         <v>287</v>
       </c>
-      <c r="G11" s="38" t="s">
+      <c r="G11" s="23" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B12" s="38">
+      <c r="B12" s="23">
         <v>6</v>
       </c>
-      <c r="C12" s="38" t="s">
+      <c r="C12" s="23" t="s">
         <v>252</v>
       </c>
-      <c r="D12" s="38" t="s">
+      <c r="D12" s="23" t="s">
         <v>293</v>
       </c>
-      <c r="E12" s="38" t="s">
+      <c r="E12" s="23" t="s">
         <v>294</v>
       </c>
-      <c r="F12" s="38" t="s">
+      <c r="F12" s="23" t="s">
         <v>295</v>
       </c>
-      <c r="G12" s="38" t="s">
+      <c r="G12" s="23" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B13" s="38">
+      <c r="B13" s="23">
         <v>5</v>
       </c>
-      <c r="C13" s="38" t="s">
+      <c r="C13" s="23" t="s">
         <v>201</v>
       </c>
-      <c r="D13" s="38" t="s">
+      <c r="D13" s="23" t="s">
         <v>297</v>
       </c>
-      <c r="E13" s="38" t="s">
+      <c r="E13" s="23" t="s">
         <v>298</v>
       </c>
-      <c r="F13" s="38" t="s">
+      <c r="F13" s="23" t="s">
         <v>299</v>
       </c>
-      <c r="G13" s="38" t="s">
+      <c r="G13" s="23" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B17" s="39" t="s">
+      <c r="B17" s="24" t="s">
         <v>310</v>
       </c>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B18" s="40" t="s">
+      <c r="B18" s="26" t="s">
         <v>313</v>
       </c>
-      <c r="C18" s="40"/>
-      <c r="D18" s="38" t="s">
+      <c r="C18" s="26"/>
+      <c r="D18" s="23" t="s">
         <v>312</v>
       </c>
-      <c r="E18" s="38" t="s">
+      <c r="E18" s="23" t="s">
         <v>314</v>
       </c>
-      <c r="F18" s="38" t="s">
+      <c r="F18" s="23" t="s">
         <v>315</v>
       </c>
-      <c r="G18" s="38" t="s">
+      <c r="G18" s="23" t="s">
         <v>316</v>
       </c>
     </row>
@@ -1872,142 +1983,142 @@
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B23" s="38" t="s">
+      <c r="B23" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="38" t="s">
+      <c r="C23" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="D23" s="38" t="s">
+      <c r="D23" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="E23" s="38" t="s">
+      <c r="E23" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="F23" s="38" t="s">
+      <c r="F23" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="G23" s="38" t="s">
+      <c r="G23" s="23" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B24" s="38">
+      <c r="B24" s="23">
         <v>12</v>
       </c>
-      <c r="C24" s="38" t="s">
+      <c r="C24" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="D24" s="38" t="s">
+      <c r="D24" s="23" t="s">
         <v>210</v>
       </c>
-      <c r="E24" s="38" t="s">
+      <c r="E24" s="23" t="s">
         <v>211</v>
       </c>
-      <c r="F24" s="38" t="s">
+      <c r="F24" s="23" t="s">
         <v>212</v>
       </c>
-      <c r="G24" s="38" t="s">
+      <c r="G24" s="23" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B25" s="38">
+      <c r="B25" s="23">
         <v>11</v>
       </c>
-      <c r="C25" s="38" t="s">
+      <c r="C25" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="D25" s="38" t="s">
+      <c r="D25" s="23" t="s">
         <v>219</v>
       </c>
-      <c r="E25" s="38" t="s">
+      <c r="E25" s="23" t="s">
         <v>220</v>
       </c>
-      <c r="F25" s="38" t="s">
+      <c r="F25" s="23" t="s">
         <v>221</v>
       </c>
-      <c r="G25" s="38" t="s">
+      <c r="G25" s="23" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B26" s="38">
+      <c r="B26" s="23">
         <v>10</v>
       </c>
-      <c r="C26" s="38" t="s">
+      <c r="C26" s="23" t="s">
         <v>231</v>
       </c>
-      <c r="D26" s="38" t="s">
+      <c r="D26" s="23" t="s">
         <v>232</v>
       </c>
-      <c r="E26" s="38" t="s">
+      <c r="E26" s="23" t="s">
         <v>233</v>
       </c>
-      <c r="F26" s="38" t="s">
+      <c r="F26" s="23" t="s">
         <v>234</v>
       </c>
-      <c r="G26" s="38" t="s">
+      <c r="G26" s="23" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B27" s="38">
+      <c r="B27" s="23">
         <v>9</v>
       </c>
-      <c r="C27" s="38" t="s">
+      <c r="C27" s="23" t="s">
         <v>231</v>
       </c>
-      <c r="D27" s="38" t="s">
+      <c r="D27" s="23" t="s">
         <v>232</v>
       </c>
-      <c r="E27" s="38" t="s">
+      <c r="E27" s="23" t="s">
         <v>233</v>
       </c>
-      <c r="F27" s="38" t="s">
+      <c r="F27" s="23" t="s">
         <v>234</v>
       </c>
-      <c r="G27" s="38" t="s">
+      <c r="G27" s="23" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B28" s="38">
+      <c r="B28" s="23">
         <v>8</v>
       </c>
-      <c r="C28" s="38" t="s">
+      <c r="C28" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="D28" s="38" t="s">
+      <c r="D28" s="23" t="s">
         <v>261</v>
       </c>
-      <c r="E28" s="38" t="s">
+      <c r="E28" s="23" t="s">
         <v>262</v>
       </c>
-      <c r="F28" s="38" t="s">
+      <c r="F28" s="23" t="s">
         <v>263</v>
       </c>
-      <c r="G28" s="38" t="s">
+      <c r="G28" s="23" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B29" s="38">
+      <c r="B29" s="23">
         <v>7</v>
       </c>
-      <c r="C29" s="38" t="s">
+      <c r="C29" s="23" t="s">
         <v>167</v>
       </c>
-      <c r="D29" s="38" t="s">
+      <c r="D29" s="23" t="s">
         <v>265</v>
       </c>
-      <c r="E29" s="38" t="s">
+      <c r="E29" s="23" t="s">
         <v>266</v>
       </c>
-      <c r="F29" s="38" t="s">
+      <c r="F29" s="23" t="s">
         <v>267</v>
       </c>
-      <c r="G29" s="38" t="s">
+      <c r="G29" s="23" t="s">
         <v>268</v>
       </c>
     </row>
@@ -2032,46 +2143,46 @@
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B31" s="38">
+      <c r="B31" s="23">
         <v>5</v>
       </c>
-      <c r="C31" s="38" t="s">
+      <c r="C31" s="23" t="s">
         <v>201</v>
       </c>
-      <c r="D31" s="38" t="s">
+      <c r="D31" s="23" t="s">
         <v>289</v>
       </c>
-      <c r="E31" s="38" t="s">
+      <c r="E31" s="23" t="s">
         <v>290</v>
       </c>
-      <c r="F31" s="38" t="s">
+      <c r="F31" s="23" t="s">
         <v>291</v>
       </c>
-      <c r="G31" s="38" t="s">
+      <c r="G31" s="23" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C32" s="38"/>
-      <c r="D32" s="38"/>
-      <c r="E32" s="38"/>
-      <c r="F32" s="38"/>
-      <c r="G32" s="38"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="23"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B35" s="39" t="s">
+      <c r="B35" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="C35" s="39"/>
-      <c r="D35" s="39"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="24"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B36" s="40"/>
-      <c r="C36" s="40"/>
-      <c r="D36" s="38"/>
-      <c r="E36" s="38"/>
-      <c r="F36" s="38"/>
-      <c r="G36" s="38"/>
+      <c r="B36" s="26"/>
+      <c r="C36" s="26"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="23"/>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B39" s="12" t="s">
@@ -2082,142 +2193,142 @@
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B41" s="38" t="s">
+      <c r="B41" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C41" s="38" t="s">
+      <c r="C41" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="D41" s="38" t="s">
+      <c r="D41" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="E41" s="38" t="s">
+      <c r="E41" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="F41" s="38" t="s">
+      <c r="F41" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="G41" s="38" t="s">
+      <c r="G41" s="23" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B42" s="38">
+      <c r="B42" s="23">
         <v>12</v>
       </c>
-      <c r="C42" s="38" t="s">
+      <c r="C42" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="D42" s="38" t="s">
+      <c r="D42" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="E42" s="38" t="s">
+      <c r="E42" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="F42" s="38" t="s">
+      <c r="F42" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="G42" s="38" t="s">
+      <c r="G42" s="23" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B43" s="38">
+      <c r="B43" s="23">
         <v>11</v>
       </c>
-      <c r="C43" s="38" t="s">
+      <c r="C43" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="D43" s="38" t="s">
+      <c r="D43" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="E43" s="38" t="s">
+      <c r="E43" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="F43" s="38" t="s">
+      <c r="F43" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="G43" s="38" t="s">
+      <c r="G43" s="23" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B44" s="38">
+      <c r="B44" s="23">
         <v>10</v>
       </c>
-      <c r="C44" s="38" t="s">
+      <c r="C44" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="D44" s="38" t="s">
+      <c r="D44" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="E44" s="38" t="s">
+      <c r="E44" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="F44" s="38" t="s">
+      <c r="F44" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="G44" s="38" t="s">
+      <c r="G44" s="23" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B45" s="38">
+      <c r="B45" s="23">
         <v>9</v>
       </c>
-      <c r="C45" s="38" t="s">
+      <c r="C45" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="D45" s="38" t="s">
+      <c r="D45" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="E45" s="38" t="s">
+      <c r="E45" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="F45" s="38" t="s">
+      <c r="F45" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="G45" s="38" t="s">
+      <c r="G45" s="23" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B46" s="38">
+      <c r="B46" s="23">
         <v>8</v>
       </c>
-      <c r="C46" s="38" t="s">
+      <c r="C46" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="D46" s="38" t="s">
+      <c r="D46" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="E46" s="38" t="s">
+      <c r="E46" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="F46" s="38" t="s">
+      <c r="F46" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="G46" s="38" t="s">
+      <c r="G46" s="23" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B47" s="38">
+      <c r="B47" s="23">
         <v>7</v>
       </c>
-      <c r="C47" s="38" t="s">
+      <c r="C47" s="23" t="s">
         <v>167</v>
       </c>
-      <c r="D47" s="38" t="s">
+      <c r="D47" s="23" t="s">
         <v>168</v>
       </c>
-      <c r="E47" s="38" t="s">
+      <c r="E47" s="23" t="s">
         <v>169</v>
       </c>
-      <c r="F47" s="38" t="s">
+      <c r="F47" s="23" t="s">
         <v>170</v>
       </c>
-      <c r="G47" s="38" t="s">
+      <c r="G47" s="23" t="s">
         <v>171</v>
       </c>
     </row>
@@ -2242,39 +2353,39 @@
       </c>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B49" s="38">
+      <c r="B49" s="23">
         <v>5</v>
       </c>
-      <c r="C49" s="38" t="s">
+      <c r="C49" s="23" t="s">
         <v>201</v>
       </c>
-      <c r="D49" s="38" t="s">
+      <c r="D49" s="23" t="s">
         <v>202</v>
       </c>
-      <c r="E49" s="38" t="s">
+      <c r="E49" s="23" t="s">
         <v>203</v>
       </c>
-      <c r="F49" s="38" t="s">
+      <c r="F49" s="23" t="s">
         <v>204</v>
       </c>
-      <c r="G49" s="38" t="s">
+      <c r="G49" s="23" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B53" s="39" t="s">
+      <c r="B53" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="C53" s="39"/>
-      <c r="D53" s="39"/>
+      <c r="C53" s="24"/>
+      <c r="D53" s="24"/>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B54" s="40"/>
-      <c r="C54" s="40"/>
-      <c r="D54" s="38"/>
-      <c r="E54" s="38"/>
-      <c r="F54" s="38"/>
-      <c r="G54" s="38"/>
+      <c r="B54" s="26"/>
+      <c r="C54" s="26"/>
+      <c r="D54" s="23"/>
+      <c r="E54" s="23"/>
+      <c r="F54" s="23"/>
+      <c r="G54" s="23"/>
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B57" s="12" t="s">
@@ -2285,122 +2396,122 @@
       </c>
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B59" s="38" t="s">
+      <c r="B59" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C59" s="38" t="s">
+      <c r="C59" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="D59" s="38" t="s">
+      <c r="D59" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="E59" s="38" t="s">
+      <c r="E59" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="F59" s="38" t="s">
+      <c r="F59" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="G59" s="38" t="s">
+      <c r="G59" s="23" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B60" s="38">
+      <c r="B60" s="23">
         <v>12</v>
       </c>
-      <c r="C60" s="38" t="s">
+      <c r="C60" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="D60" s="38" t="s">
+      <c r="D60" s="23" t="s">
         <v>223</v>
       </c>
-      <c r="E60" s="38" t="s">
+      <c r="E60" s="23" t="s">
         <v>224</v>
       </c>
-      <c r="F60" s="38" t="s">
+      <c r="F60" s="23" t="s">
         <v>225</v>
       </c>
-      <c r="G60" s="38" t="s">
+      <c r="G60" s="23" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B61" s="38">
+      <c r="B61" s="23">
         <v>11</v>
       </c>
-      <c r="C61" s="38" t="s">
+      <c r="C61" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="D61" s="38" t="s">
+      <c r="D61" s="23" t="s">
         <v>227</v>
       </c>
-      <c r="E61" s="38" t="s">
+      <c r="E61" s="23" t="s">
         <v>228</v>
       </c>
-      <c r="F61" s="38" t="s">
+      <c r="F61" s="23" t="s">
         <v>229</v>
       </c>
-      <c r="G61" s="38" t="s">
+      <c r="G61" s="23" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="62" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B62" s="38">
+      <c r="B62" s="23">
         <v>10</v>
       </c>
-      <c r="C62" s="38" t="s">
+      <c r="C62" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="D62" s="38" t="s">
+      <c r="D62" s="23" t="s">
         <v>240</v>
       </c>
-      <c r="E62" s="38" t="s">
+      <c r="E62" s="23" t="s">
         <v>241</v>
       </c>
-      <c r="F62" s="38" t="s">
+      <c r="F62" s="23" t="s">
         <v>242</v>
       </c>
-      <c r="G62" s="38" t="s">
+      <c r="G62" s="23" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="63" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B63" s="38">
+      <c r="B63" s="23">
         <v>9</v>
       </c>
-      <c r="C63" s="38" t="s">
+      <c r="C63" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="D63" s="38" t="s">
+      <c r="D63" s="23" t="s">
         <v>240</v>
       </c>
-      <c r="E63" s="38" t="s">
+      <c r="E63" s="23" t="s">
         <v>241</v>
       </c>
-      <c r="F63" s="38" t="s">
+      <c r="F63" s="23" t="s">
         <v>242</v>
       </c>
-      <c r="G63" s="38" t="s">
+      <c r="G63" s="23" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="64" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B64" s="38">
+      <c r="B64" s="23">
         <v>8</v>
       </c>
-      <c r="C64" s="38" t="s">
+      <c r="C64" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="D64" s="38" t="s">
+      <c r="D64" s="23" t="s">
         <v>244</v>
       </c>
-      <c r="E64" s="38" t="s">
+      <c r="E64" s="23" t="s">
         <v>245</v>
       </c>
-      <c r="F64" s="38" t="s">
+      <c r="F64" s="23" t="s">
         <v>246</v>
       </c>
-      <c r="G64" s="38" t="s">
+      <c r="G64" s="23" t="s">
         <v>247</v>
       </c>
     </row>
@@ -2425,59 +2536,59 @@
       </c>
     </row>
     <row r="66" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B66" s="38">
+      <c r="B66" s="23">
         <v>6</v>
       </c>
-      <c r="C66" s="38" t="s">
+      <c r="C66" s="23" t="s">
         <v>252</v>
       </c>
-      <c r="D66" s="38" t="s">
+      <c r="D66" s="23" t="s">
         <v>253</v>
       </c>
-      <c r="E66" s="38" t="s">
+      <c r="E66" s="23" t="s">
         <v>254</v>
       </c>
-      <c r="F66" s="38" t="s">
+      <c r="F66" s="23" t="s">
         <v>255</v>
       </c>
-      <c r="G66" s="38" t="s">
+      <c r="G66" s="23" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="67" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B67" s="38">
+      <c r="B67" s="23">
         <v>5</v>
       </c>
-      <c r="C67" s="38" t="s">
+      <c r="C67" s="23" t="s">
         <v>201</v>
       </c>
-      <c r="D67" s="38" t="s">
+      <c r="D67" s="23" t="s">
         <v>257</v>
       </c>
-      <c r="E67" s="38" t="s">
+      <c r="E67" s="23" t="s">
         <v>258</v>
       </c>
-      <c r="F67" s="38" t="s">
+      <c r="F67" s="23" t="s">
         <v>259</v>
       </c>
-      <c r="G67" s="38" t="s">
+      <c r="G67" s="23" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="71" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B71" s="39" t="s">
+      <c r="B71" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="C71" s="39"/>
-      <c r="D71" s="39"/>
+      <c r="C71" s="24"/>
+      <c r="D71" s="24"/>
     </row>
     <row r="72" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B72" s="40"/>
-      <c r="C72" s="40"/>
-      <c r="D72" s="38"/>
-      <c r="E72" s="38"/>
-      <c r="F72" s="38"/>
-      <c r="G72" s="38"/>
+      <c r="B72" s="26"/>
+      <c r="C72" s="26"/>
+      <c r="D72" s="23"/>
+      <c r="E72" s="23"/>
+      <c r="F72" s="23"/>
+      <c r="G72" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2493,10 +2604,498 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27D34A67-7EA1-4E46-B651-5814B8ED44C8}">
-  <dimension ref="A3:J30"/>
+  <dimension ref="A3:J36"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="13.33203125" customWidth="1"/>
+    <col min="3" max="3" width="22.21875" customWidth="1"/>
+    <col min="4" max="4" width="20.21875" customWidth="1"/>
+    <col min="5" max="5" width="19.5546875" customWidth="1"/>
+    <col min="6" max="6" width="20.88671875" customWidth="1"/>
+    <col min="7" max="7" width="19.44140625" customWidth="1"/>
+    <col min="8" max="8" width="20.5546875" customWidth="1"/>
+    <col min="9" max="9" width="21.33203125" customWidth="1"/>
+    <col min="10" max="10" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B5" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B6" s="27"/>
+      <c r="C6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="8"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="G7" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="H7" s="33"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="27"/>
+      <c r="C8" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="G8" s="32"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="G9" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="H9" s="33"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="27"/>
+      <c r="C10" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="G10" s="32"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="G11" s="32" t="s">
+        <v>93</v>
+      </c>
+      <c r="H11" s="33"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="27"/>
+      <c r="C12" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="G12" s="32"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="G13" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="H13" s="35"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="27"/>
+      <c r="C14" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="G14" s="34"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>269</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>270</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="F15" s="17" t="s">
+        <v>272</v>
+      </c>
+      <c r="G15" s="34" t="s">
+        <v>301</v>
+      </c>
+      <c r="H15" s="35"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="27"/>
+      <c r="C16" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="G16" s="34"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="27" t="s">
+        <v>327</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>328</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>329</v>
+      </c>
+      <c r="E17" s="22" t="s">
+        <v>330</v>
+      </c>
+      <c r="F17" s="22" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="27"/>
+      <c r="C18" s="22" t="s">
+        <v>344</v>
+      </c>
+      <c r="D18" s="22" t="s">
+        <v>345</v>
+      </c>
+      <c r="E18" s="22" t="s">
+        <v>346</v>
+      </c>
+      <c r="F18" s="22" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>325</v>
+      </c>
+      <c r="C19">
+        <v>98.29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="43"/>
+      <c r="B20" t="s">
+        <v>326</v>
+      </c>
+      <c r="C20">
+        <v>98.23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>325</v>
+      </c>
+      <c r="C21">
+        <v>99.72</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="43"/>
+      <c r="B22" t="s">
+        <v>326</v>
+      </c>
+      <c r="C22">
+        <v>99.7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I24" s="9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I25" s="9"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D26" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="I26" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D27" s="9"/>
+      <c r="I27" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D28" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I28" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D29" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="I29" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D30" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I30" s="9"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D31" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="I31" s="9" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D32" s="9"/>
+      <c r="I32" s="9" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="33" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D33" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="I33" s="9" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="34" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D34" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="I34" s="9" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="35" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D35" s="9" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="36" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D36" s="9" t="s">
+        <v>324</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="G7:H8"/>
+    <mergeCell ref="G9:H10"/>
+    <mergeCell ref="G11:H12"/>
+    <mergeCell ref="G13:H14"/>
+    <mergeCell ref="G15:H16"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B9:B10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91329088-2726-4B19-B800-EBB8BBF3C82A}">
+  <dimension ref="A3:J32"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2516,26 +3115,26 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B6" s="22"/>
+      <c r="B6" s="27"/>
       <c r="C6" s="2" t="s">
         <v>4</v>
       </c>
@@ -2557,25 +3156,25 @@
       <c r="A7" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="27" t="s">
         <v>18</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="G7" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="G7" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="H7" s="24"/>
+      <c r="H7" s="33"/>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
@@ -2583,21 +3182,21 @@
       <c r="A8" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="22"/>
+      <c r="B8" s="27"/>
       <c r="C8" s="10" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="G8" s="23"/>
-      <c r="H8" s="24"/>
+        <v>110</v>
+      </c>
+      <c r="G8" s="32"/>
+      <c r="H8" s="33"/>
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
     </row>
@@ -2605,25 +3204,25 @@
       <c r="A9" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="27" t="s">
         <v>20</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>136</v>
+        <v>143</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>144</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="G9" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="G9" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="H9" s="24"/>
+      <c r="H9" s="33"/>
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
@@ -2631,21 +3230,21 @@
       <c r="A10" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="22"/>
+      <c r="B10" s="27"/>
       <c r="C10" s="10" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="G10" s="23"/>
-      <c r="H10" s="24"/>
+        <v>150</v>
+      </c>
+      <c r="G10" s="32"/>
+      <c r="H10" s="33"/>
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
     </row>
@@ -2653,25 +3252,25 @@
       <c r="A11" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="27" t="s">
         <v>21</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>127</v>
+        <v>181</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>128</v>
+        <v>182</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>129</v>
+        <v>183</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="G11" s="23" t="s">
+        <v>184</v>
+      </c>
+      <c r="G11" s="32" t="s">
         <v>93</v>
       </c>
-      <c r="H11" s="24"/>
+      <c r="H11" s="33"/>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
     </row>
@@ -2679,21 +3278,21 @@
       <c r="A12" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="22"/>
+      <c r="B12" s="27"/>
       <c r="C12" s="10" t="s">
-        <v>131</v>
+        <v>177</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>132</v>
+        <v>178</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>133</v>
+        <v>179</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="G12" s="23"/>
-      <c r="H12" s="24"/>
+        <v>180</v>
+      </c>
+      <c r="G12" s="32"/>
+      <c r="H12" s="33"/>
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
     </row>
@@ -2701,25 +3300,25 @@
       <c r="A13" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="27" t="s">
         <v>22</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="G13" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="G13" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="H13" s="26"/>
+      <c r="H13" s="35"/>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
     </row>
@@ -2727,21 +3326,21 @@
       <c r="A14" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="22"/>
+      <c r="B14" s="27"/>
       <c r="C14" s="10" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="G14" s="25"/>
-      <c r="H14" s="26"/>
+        <v>72</v>
+      </c>
+      <c r="G14" s="34"/>
+      <c r="H14" s="35"/>
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
     </row>
@@ -2749,25 +3348,25 @@
       <c r="A15" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="27" t="s">
         <v>23</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>271</v>
+        <v>283</v>
       </c>
       <c r="F15" s="17" t="s">
-        <v>272</v>
-      </c>
-      <c r="G15" s="25" t="s">
-        <v>301</v>
-      </c>
-      <c r="H15" s="26"/>
+        <v>284</v>
+      </c>
+      <c r="G15" s="34" t="s">
+        <v>214</v>
+      </c>
+      <c r="H15" s="35"/>
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
     </row>
@@ -2775,130 +3374,157 @@
       <c r="A16" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="22"/>
+      <c r="B16" s="27"/>
       <c r="C16" s="3" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="G16" s="25"/>
-      <c r="H16" s="26"/>
+        <v>308</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="G16" s="34"/>
+      <c r="H16" s="35"/>
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
     </row>
-    <row r="20" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D20" s="9" t="s">
-        <v>89</v>
-      </c>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="27" t="s">
+        <v>327</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>332</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>333</v>
+      </c>
+      <c r="E17" s="22" t="s">
+        <v>334</v>
+      </c>
+      <c r="F17" s="22" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="27"/>
+      <c r="C18" s="22" t="s">
+        <v>348</v>
+      </c>
+      <c r="D18" s="22" t="s">
+        <v>349</v>
+      </c>
+      <c r="E18" s="22" t="s">
+        <v>350</v>
+      </c>
+      <c r="F18" s="22" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I20" s="9" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="21" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D21" s="9"/>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I21" s="9"/>
     </row>
-    <row r="22" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D22" s="9" t="s">
-        <v>24</v>
+        <v>89</v>
       </c>
       <c r="I22" s="9" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D23" s="9" t="s">
-        <v>25</v>
-      </c>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D23" s="9"/>
       <c r="I23" s="9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D24" s="9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I24" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D25" s="9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I25" s="9" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D26" s="9"/>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D26" s="9" t="s">
+        <v>26</v>
+      </c>
       <c r="I26" s="9"/>
     </row>
-    <row r="27" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D27" s="9" t="s">
-        <v>321</v>
-      </c>
-      <c r="I27" s="9" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="28" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D28" s="9" t="s">
-        <v>322</v>
-      </c>
-      <c r="I28" s="9" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="29" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D29" s="9" t="s">
-        <v>323</v>
-      </c>
-      <c r="I29" s="9" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="30" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D30" s="9" t="s">
-        <v>324</v>
-      </c>
-      <c r="I30" s="9" t="s">
-        <v>320</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="I27" s="9"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D28" s="9"/>
+      <c r="I28" s="9"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D29" s="9"/>
+      <c r="I29" s="9"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D30" s="9"/>
+      <c r="I30" s="9"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D31" s="9"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D32" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="14">
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="G9:H10"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:F5"/>
     <mergeCell ref="G5:J5"/>
     <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="G7:H8"/>
     <mergeCell ref="B11:B12"/>
+    <mergeCell ref="G11:H12"/>
     <mergeCell ref="B13:B14"/>
+    <mergeCell ref="G13:H14"/>
     <mergeCell ref="B15:B16"/>
-    <mergeCell ref="G7:H8"/>
-    <mergeCell ref="G9:H10"/>
-    <mergeCell ref="G11:H12"/>
-    <mergeCell ref="G13:H14"/>
     <mergeCell ref="G15:H16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91329088-2726-4B19-B800-EBB8BBF3C82A}">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61E5C165-CC35-4B6C-959C-2E76B8D5E7AF}">
   <dimension ref="A3:J30"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2918,26 +3544,26 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B6" s="22"/>
+      <c r="B6" s="27"/>
       <c r="C6" s="2" t="s">
         <v>4</v>
       </c>
@@ -2959,25 +3585,25 @@
       <c r="A7" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="27" t="s">
         <v>18</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="G7" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="G7" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="H7" s="24"/>
+      <c r="H7" s="33"/>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
@@ -2985,21 +3611,21 @@
       <c r="A8" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="22"/>
+      <c r="B8" s="27"/>
       <c r="C8" s="10" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="G8" s="23"/>
-      <c r="H8" s="24"/>
+        <v>118</v>
+      </c>
+      <c r="G8" s="32"/>
+      <c r="H8" s="33"/>
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
     </row>
@@ -3007,25 +3633,25 @@
       <c r="A9" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="27" t="s">
         <v>20</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="G9" s="23" t="s">
+        <v>154</v>
+      </c>
+      <c r="G9" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="H9" s="24"/>
+      <c r="H9" s="33"/>
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
@@ -3033,21 +3659,21 @@
       <c r="A10" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="22"/>
+      <c r="B10" s="27"/>
       <c r="C10" s="10" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="G10" s="23"/>
-      <c r="H10" s="24"/>
+        <v>158</v>
+      </c>
+      <c r="G10" s="32"/>
+      <c r="H10" s="33"/>
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
     </row>
@@ -3055,25 +3681,25 @@
       <c r="A11" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="27" t="s">
         <v>21</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>184</v>
-      </c>
-      <c r="G11" s="23" t="s">
+        <v>188</v>
+      </c>
+      <c r="G11" s="32" t="s">
         <v>93</v>
       </c>
-      <c r="H11" s="24"/>
+      <c r="H11" s="33"/>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
     </row>
@@ -3081,21 +3707,21 @@
       <c r="A12" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="22"/>
+      <c r="B12" s="27"/>
       <c r="C12" s="10" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="G12" s="23"/>
-      <c r="H12" s="24"/>
+        <v>192</v>
+      </c>
+      <c r="G12" s="32"/>
+      <c r="H12" s="33"/>
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
     </row>
@@ -3103,25 +3729,25 @@
       <c r="A13" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="27" t="s">
         <v>22</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="G13" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="G13" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="H13" s="26"/>
+      <c r="H13" s="35"/>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
     </row>
@@ -3129,21 +3755,21 @@
       <c r="A14" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="22"/>
+      <c r="B14" s="27"/>
       <c r="C14" s="10" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="G14" s="25"/>
-      <c r="H14" s="26"/>
+        <v>80</v>
+      </c>
+      <c r="G14" s="34"/>
+      <c r="H14" s="35"/>
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
     </row>
@@ -3151,25 +3777,25 @@
       <c r="A15" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="17" t="s">
-        <v>281</v>
-      </c>
-      <c r="D15" s="17" t="s">
-        <v>282</v>
-      </c>
-      <c r="E15" s="17" t="s">
-        <v>283</v>
-      </c>
-      <c r="F15" s="17" t="s">
-        <v>284</v>
-      </c>
-      <c r="G15" s="25" t="s">
+      <c r="C15" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="D15" s="25" t="s">
+        <v>174</v>
+      </c>
+      <c r="E15" s="25" t="s">
+        <v>175</v>
+      </c>
+      <c r="F15" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="G15" s="34" t="s">
         <v>214</v>
       </c>
-      <c r="H15" s="26"/>
+      <c r="H15" s="35"/>
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
     </row>
@@ -3177,25 +3803,63 @@
       <c r="A16" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="22"/>
+      <c r="B16" s="27"/>
       <c r="C16" s="3" t="s">
-        <v>306</v>
+        <v>273</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>307</v>
+        <v>274</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>308</v>
+        <v>275</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>309</v>
-      </c>
-      <c r="G16" s="25"/>
-      <c r="H16" s="26"/>
+        <v>276</v>
+      </c>
+      <c r="G16" s="34"/>
+      <c r="H16" s="35"/>
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
     </row>
-    <row r="20" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="27" t="s">
+        <v>327</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>336</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>337</v>
+      </c>
+      <c r="E17" s="22" t="s">
+        <v>338</v>
+      </c>
+      <c r="F17" s="22" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="27"/>
+      <c r="C18" s="22" t="s">
+        <v>352</v>
+      </c>
+      <c r="D18" s="22" t="s">
+        <v>353</v>
+      </c>
+      <c r="E18" s="22" t="s">
+        <v>354</v>
+      </c>
+      <c r="F18" s="22" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D20" s="9" t="s">
         <v>89</v>
       </c>
@@ -3203,11 +3867,11 @@
         <v>90</v>
       </c>
     </row>
-    <row r="21" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D21" s="9"/>
       <c r="I21" s="9"/>
     </row>
-    <row r="22" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D22" s="9" t="s">
         <v>24</v>
       </c>
@@ -3215,7 +3879,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D23" s="9" t="s">
         <v>25</v>
       </c>
@@ -3223,7 +3887,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D24" s="9" t="s">
         <v>26</v>
       </c>
@@ -3231,7 +3895,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D25" s="9" t="s">
         <v>27</v>
       </c>
@@ -3239,34 +3903,29 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D26" s="9"/>
       <c r="I26" s="9"/>
     </row>
-    <row r="27" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D27" s="9"/>
       <c r="I27" s="9"/>
     </row>
-    <row r="28" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D28" s="9"/>
       <c r="I28" s="9"/>
     </row>
-    <row r="29" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D29" s="9"/>
       <c r="I29" s="9"/>
     </row>
-    <row r="30" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D30" s="9"/>
       <c r="I30" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="G11:H12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="G13:H14"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="G15:H16"/>
+  <mergeCells count="14">
+    <mergeCell ref="B17:B18"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="G9:H10"/>
     <mergeCell ref="B5:B6"/>
@@ -3274,392 +3933,12 @@
     <mergeCell ref="G5:J5"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="G7:H8"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61E5C165-CC35-4B6C-959C-2E76B8D5E7AF}">
-  <dimension ref="A3:J30"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="3" max="3" width="22.21875" customWidth="1"/>
-    <col min="4" max="4" width="20.21875" customWidth="1"/>
-    <col min="5" max="5" width="19.5546875" customWidth="1"/>
-    <col min="6" max="6" width="20.88671875" customWidth="1"/>
-    <col min="7" max="7" width="19.44140625" customWidth="1"/>
-    <col min="8" max="8" width="20.5546875" customWidth="1"/>
-    <col min="9" max="9" width="21.33203125" customWidth="1"/>
-    <col min="10" max="10" width="20" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B5" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B6" s="22"/>
-      <c r="C6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G6" s="8"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="G7" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="H7" s="24"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="22"/>
-      <c r="C8" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="G8" s="23"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="G9" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="H9" s="24"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="22"/>
-      <c r="C10" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="G10" s="23"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="G11" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="H11" s="24"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="22"/>
-      <c r="C12" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>191</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="G12" s="23"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="G13" s="25" t="s">
-        <v>94</v>
-      </c>
-      <c r="H13" s="26"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="22"/>
-      <c r="C14" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="G14" s="25"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="41" t="s">
-        <v>172</v>
-      </c>
-      <c r="D15" s="41" t="s">
-        <v>174</v>
-      </c>
-      <c r="E15" s="41" t="s">
-        <v>175</v>
-      </c>
-      <c r="F15" s="41" t="s">
-        <v>176</v>
-      </c>
-      <c r="G15" s="25" t="s">
-        <v>214</v>
-      </c>
-      <c r="H15" s="26"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="22"/>
-      <c r="C16" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="G16" s="25"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-    </row>
-    <row r="20" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D20" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="I20" s="9" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="21" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D21" s="9"/>
-      <c r="I21" s="9"/>
-    </row>
-    <row r="22" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D22" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="I22" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="23" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D23" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="I23" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="24" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D24" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I24" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="25" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D25" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="I25" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="26" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D26" s="9"/>
-      <c r="I26" s="9"/>
-    </row>
-    <row r="27" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D27" s="9"/>
-      <c r="I27" s="9"/>
-    </row>
-    <row r="28" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D28" s="9"/>
-      <c r="I28" s="9"/>
-    </row>
-    <row r="29" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D29" s="9"/>
-      <c r="I29" s="9"/>
-    </row>
-    <row r="30" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D30" s="9"/>
-      <c r="I30" s="9"/>
-    </row>
-  </sheetData>
-  <mergeCells count="13">
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="G11:H12"/>
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="G13:H14"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="G15:H16"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="G9:H10"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="G5:J5"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="G7:H8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3670,7 +3949,7 @@
   <dimension ref="A3:J30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:F5"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3696,22 +3975,22 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="34" t="s">
+      <c r="C5" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="37"/>
-      <c r="J5" s="37"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="42"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B6" s="31"/>
+      <c r="B6" s="36"/>
       <c r="C6" s="13" t="s">
         <v>4</v>
       </c>
@@ -3733,7 +4012,7 @@
       <c r="A7" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="36" t="s">
         <v>18</v>
       </c>
       <c r="C7" s="13" t="s">
@@ -3748,10 +4027,10 @@
       <c r="F7" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="G7" s="32" t="s">
+      <c r="G7" s="37" t="s">
         <v>92</v>
       </c>
-      <c r="H7" s="33"/>
+      <c r="H7" s="38"/>
       <c r="I7" s="16"/>
       <c r="J7" s="16"/>
     </row>
@@ -3759,7 +4038,7 @@
       <c r="A8" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="31"/>
+      <c r="B8" s="36"/>
       <c r="C8" s="13" t="s">
         <v>123</v>
       </c>
@@ -3772,8 +4051,8 @@
       <c r="F8" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="G8" s="32"/>
-      <c r="H8" s="33"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="38"/>
       <c r="I8" s="16"/>
       <c r="J8" s="16"/>
     </row>
@@ -3781,7 +4060,7 @@
       <c r="A9" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="31" t="s">
+      <c r="B9" s="36" t="s">
         <v>20</v>
       </c>
       <c r="C9" s="13" t="s">
@@ -3796,10 +4075,10 @@
       <c r="F9" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="G9" s="32" t="s">
+      <c r="G9" s="37" t="s">
         <v>91</v>
       </c>
-      <c r="H9" s="33"/>
+      <c r="H9" s="38"/>
       <c r="I9" s="16"/>
       <c r="J9" s="16"/>
     </row>
@@ -3807,7 +4086,7 @@
       <c r="A10" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="31"/>
+      <c r="B10" s="36"/>
       <c r="C10" s="13" t="s">
         <v>163</v>
       </c>
@@ -3820,8 +4099,8 @@
       <c r="F10" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="G10" s="32"/>
-      <c r="H10" s="33"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="38"/>
       <c r="I10" s="16"/>
       <c r="J10" s="16"/>
     </row>
@@ -3829,7 +4108,7 @@
       <c r="A11" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="31" t="s">
+      <c r="B11" s="36" t="s">
         <v>21</v>
       </c>
       <c r="C11" s="13" t="s">
@@ -3844,10 +4123,10 @@
       <c r="F11" s="13" t="s">
         <v>196</v>
       </c>
-      <c r="G11" s="32" t="s">
+      <c r="G11" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="H11" s="33"/>
+      <c r="H11" s="38"/>
       <c r="I11" s="16"/>
       <c r="J11" s="16"/>
     </row>
@@ -3855,7 +4134,7 @@
       <c r="A12" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="31"/>
+      <c r="B12" s="36"/>
       <c r="C12" s="13" t="s">
         <v>197</v>
       </c>
@@ -3868,8 +4147,8 @@
       <c r="F12" s="13" t="s">
         <v>200</v>
       </c>
-      <c r="G12" s="32"/>
-      <c r="H12" s="33"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="38"/>
       <c r="I12" s="16"/>
       <c r="J12" s="16"/>
     </row>
@@ -3877,7 +4156,7 @@
       <c r="A13" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="31" t="s">
+      <c r="B13" s="36" t="s">
         <v>22</v>
       </c>
       <c r="C13" s="13" t="s">
@@ -3892,10 +4171,10 @@
       <c r="F13" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="G13" s="32" t="s">
+      <c r="G13" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="H13" s="33"/>
+      <c r="H13" s="38"/>
       <c r="I13" s="16"/>
       <c r="J13" s="16"/>
     </row>
@@ -3903,7 +4182,7 @@
       <c r="A14" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="31"/>
+      <c r="B14" s="36"/>
       <c r="C14" s="13" t="s">
         <v>85</v>
       </c>
@@ -3916,8 +4195,8 @@
       <c r="F14" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="G14" s="32"/>
-      <c r="H14" s="33"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="38"/>
       <c r="I14" s="16"/>
       <c r="J14" s="16"/>
     </row>
@@ -3925,7 +4204,7 @@
       <c r="A15" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="31" t="s">
+      <c r="B15" s="36" t="s">
         <v>23</v>
       </c>
       <c r="C15" s="17" t="s">
@@ -3940,10 +4219,10 @@
       <c r="F15" s="17" t="s">
         <v>251</v>
       </c>
-      <c r="G15" s="32" t="s">
+      <c r="G15" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="H15" s="33"/>
+      <c r="H15" s="38"/>
       <c r="I15" s="18"/>
       <c r="J15" s="18"/>
     </row>
@@ -3951,7 +4230,7 @@
       <c r="A16" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="31"/>
+      <c r="B16" s="36"/>
       <c r="C16" s="19" t="s">
         <v>278</v>
       </c>
@@ -3964,12 +4243,50 @@
       <c r="F16" s="20" t="s">
         <v>277</v>
       </c>
-      <c r="G16" s="32"/>
-      <c r="H16" s="33"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="38"/>
       <c r="I16" s="18"/>
       <c r="J16" s="18"/>
     </row>
-    <row r="20" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="27" t="s">
+        <v>327</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>340</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>341</v>
+      </c>
+      <c r="E17" s="22" t="s">
+        <v>342</v>
+      </c>
+      <c r="F17" s="22" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="27"/>
+      <c r="C18" s="22" t="s">
+        <v>356</v>
+      </c>
+      <c r="D18" s="22" t="s">
+        <v>357</v>
+      </c>
+      <c r="E18" s="22" t="s">
+        <v>358</v>
+      </c>
+      <c r="F18" s="22" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D20" s="21" t="s">
         <v>89</v>
       </c>
@@ -3977,11 +4294,11 @@
         <v>90</v>
       </c>
     </row>
-    <row r="21" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D21" s="21"/>
       <c r="I21" s="21"/>
     </row>
-    <row r="22" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D22" s="21" t="s">
         <v>24</v>
       </c>
@@ -3989,7 +4306,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D23" s="21" t="s">
         <v>25</v>
       </c>
@@ -3997,7 +4314,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D24" s="21" t="s">
         <v>26</v>
       </c>
@@ -4005,7 +4322,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D25" s="21" t="s">
         <v>27</v>
       </c>
@@ -4013,34 +4330,29 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D26" s="21"/>
       <c r="I26" s="21"/>
     </row>
-    <row r="27" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D27" s="21"/>
       <c r="I27" s="21"/>
     </row>
-    <row r="28" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D28" s="21"/>
       <c r="I28" s="21"/>
     </row>
-    <row r="29" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D29" s="21"/>
       <c r="I29" s="21"/>
     </row>
-    <row r="30" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D30" s="21"/>
       <c r="I30" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="G11:H12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="G13:H14"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="G15:H16"/>
+  <mergeCells count="14">
+    <mergeCell ref="B17:B18"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="G9:H10"/>
     <mergeCell ref="B5:B6"/>
@@ -4048,6 +4360,12 @@
     <mergeCell ref="G5:J5"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="G7:H8"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="G11:H12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="G13:H14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="G15:H16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/SA/results/SummarySA.xlsx
+++ b/SA/results/SummarySA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\w63x712\Documents\Machine_Learning\HSI_selection2\SA\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E122C849-0EF1-40F2-A5D6-4B28F62B7DFE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3074DCD2-A266-4442-A58F-4F8A37372EC6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{D4E1857A-7969-4B6E-A5E0-8AB94818FDA4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{D4E1857A-7969-4B6E-A5E0-8AB94818FDA4}"/>
   </bookViews>
   <sheets>
     <sheet name="200 bands" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="399">
   <si>
     <t>SVM</t>
   </si>
@@ -1119,6 +1119,123 @@
   </si>
   <si>
     <t>98.184% (+/- 0.228%)</t>
+  </si>
+  <si>
+    <t>IBRA + PLS</t>
+  </si>
+  <si>
+    <t>95.423% (+/- 0.290%)</t>
+  </si>
+  <si>
+    <t>97.981% (+/- 0.185%)</t>
+  </si>
+  <si>
+    <t>97.895% (+/- 0.218%)</t>
+  </si>
+  <si>
+    <t>97.929% (+/- 0.190%)</t>
+  </si>
+  <si>
+    <t>92.440% (+/- 0.465%)</t>
+  </si>
+  <si>
+    <t>96.125% (+/- 0.365%)</t>
+  </si>
+  <si>
+    <t>96.115% (+/- 0.316%)</t>
+  </si>
+  <si>
+    <t>96.096% (+/- 0.318%)</t>
+  </si>
+  <si>
+    <t>94.101% (+/- 0.378%)</t>
+  </si>
+  <si>
+    <t>97.176% (+/- 0.321%)</t>
+  </si>
+  <si>
+    <t>97.366% (+/- 0.192%)</t>
+  </si>
+  <si>
+    <t>97.257% (+/- 0.243%)</t>
+  </si>
+  <si>
+    <t>96.870% (+/- 0.177%)</t>
+  </si>
+  <si>
+    <t>98.539% (+/- 0.103%)</t>
+  </si>
+  <si>
+    <t>98.591% (+/- 0.095%)</t>
+  </si>
+  <si>
+    <t>98.563% (+/- 0.090%)</t>
+  </si>
+  <si>
+    <t>97.638% (+/- 0.194%)</t>
+  </si>
+  <si>
+    <t>98.927% (+/- 0.119%)</t>
+  </si>
+  <si>
+    <t>98.987% (+/- 0.081%)</t>
+  </si>
+  <si>
+    <t>98.956% (+/- 0.098%)</t>
+  </si>
+  <si>
+    <t>95.321% (+/- 0.136%)</t>
+  </si>
+  <si>
+    <t>97.859% (+/- 0.152%)</t>
+  </si>
+  <si>
+    <t>97.995% (+/- 0.099%)</t>
+  </si>
+  <si>
+    <t>97.919% (+/- 0.108%)</t>
+  </si>
+  <si>
+    <t>96.263% (+/- 0.211%)</t>
+  </si>
+  <si>
+    <t>98.333% (+/- 0.140%)</t>
+  </si>
+  <si>
+    <t>98.355% (+/- 0.111%)</t>
+  </si>
+  <si>
+    <t>98.337% (+/- 0.104%)</t>
+  </si>
+  <si>
+    <t>98.143% (+/- 0.204%)</t>
+  </si>
+  <si>
+    <t>99.254% (+/- 0.080%)</t>
+  </si>
+  <si>
+    <t>99.230% (+/- 0.089%)</t>
+  </si>
+  <si>
+    <t>99.241% (+/- 0.082%)</t>
+  </si>
+  <si>
+    <t>Ttest_relResult(statistic=9.510213490125636, pvalue=5.426314105395733e-06)</t>
+  </si>
+  <si>
+    <t>Ttest_relResult(statistic=38.210714585745926, pvalue=2.859472816036014e-11)</t>
+  </si>
+  <si>
+    <t>print(stats.ttest_rel(df['GSS'], df['IBRA-PLS']))</t>
+  </si>
+  <si>
+    <t>print(stats.ttest_rel(df['GSS'], df['IBRA-PCA']))</t>
+  </si>
+  <si>
+    <t>Ttest_relResult(statistic=5.248435784197897, pvalue=0.0005287956049962497)</t>
+  </si>
+  <si>
+    <t>Ttest_relResult(statistic=8.479237447463724, pvalue=1.3865720526517418e-05)</t>
   </si>
 </sst>
 </file>
@@ -1234,7 +1351,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1303,10 +1420,28 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1320,18 +1455,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1354,8 +1477,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1746,7 +1869,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{448D17FE-18CC-46F5-BAC3-3C9188DFBB42}">
   <dimension ref="B3:G72"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
@@ -1957,10 +2080,10 @@
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B18" s="26" t="s">
+      <c r="B18" s="27" t="s">
         <v>313</v>
       </c>
-      <c r="C18" s="26"/>
+      <c r="C18" s="27"/>
       <c r="D18" s="23" t="s">
         <v>312</v>
       </c>
@@ -2177,8 +2300,8 @@
       <c r="D35" s="24"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B36" s="26"/>
-      <c r="C36" s="26"/>
+      <c r="B36" s="27"/>
+      <c r="C36" s="27"/>
       <c r="D36" s="23"/>
       <c r="E36" s="23"/>
       <c r="F36" s="23"/>
@@ -2380,8 +2503,8 @@
       <c r="D53" s="24"/>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B54" s="26"/>
-      <c r="C54" s="26"/>
+      <c r="B54" s="27"/>
+      <c r="C54" s="27"/>
       <c r="D54" s="23"/>
       <c r="E54" s="23"/>
       <c r="F54" s="23"/>
@@ -2583,8 +2706,8 @@
       <c r="D71" s="24"/>
     </row>
     <row r="72" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B72" s="26"/>
-      <c r="C72" s="26"/>
+      <c r="B72" s="27"/>
+      <c r="C72" s="27"/>
       <c r="D72" s="23"/>
       <c r="E72" s="23"/>
       <c r="F72" s="23"/>
@@ -2604,10 +2727,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27D34A67-7EA1-4E46-B651-5814B8ED44C8}">
-  <dimension ref="A3:J36"/>
+  <dimension ref="A3:J42"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37:D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2632,22 +2755,22 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="37"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B6" s="27"/>
+      <c r="B6" s="29"/>
       <c r="C6" s="2" t="s">
         <v>4</v>
       </c>
@@ -2669,7 +2792,7 @@
       <c r="A7" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="29" t="s">
         <v>18</v>
       </c>
       <c r="C7" s="10" t="s">
@@ -2684,10 +2807,10 @@
       <c r="F7" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="G7" s="32" t="s">
+      <c r="G7" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="H7" s="33"/>
+      <c r="H7" s="31"/>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
@@ -2695,7 +2818,7 @@
       <c r="A8" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="27"/>
+      <c r="B8" s="29"/>
       <c r="C8" s="10" t="s">
         <v>99</v>
       </c>
@@ -2708,8 +2831,8 @@
       <c r="F8" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="G8" s="32"/>
-      <c r="H8" s="33"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="31"/>
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
     </row>
@@ -2717,7 +2840,7 @@
       <c r="A9" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="29" t="s">
         <v>20</v>
       </c>
       <c r="C9" s="10" t="s">
@@ -2732,10 +2855,10 @@
       <c r="F9" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="G9" s="32" t="s">
+      <c r="G9" s="30" t="s">
         <v>91</v>
       </c>
-      <c r="H9" s="33"/>
+      <c r="H9" s="31"/>
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
@@ -2743,7 +2866,7 @@
       <c r="A10" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="27"/>
+      <c r="B10" s="29"/>
       <c r="C10" s="10" t="s">
         <v>139</v>
       </c>
@@ -2756,8 +2879,8 @@
       <c r="F10" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="G10" s="32"/>
-      <c r="H10" s="33"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="31"/>
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
     </row>
@@ -2765,7 +2888,7 @@
       <c r="A11" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="29" t="s">
         <v>21</v>
       </c>
       <c r="C11" s="10" t="s">
@@ -2780,10 +2903,10 @@
       <c r="F11" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="G11" s="32" t="s">
+      <c r="G11" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="H11" s="33"/>
+      <c r="H11" s="31"/>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
     </row>
@@ -2791,7 +2914,7 @@
       <c r="A12" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="27"/>
+      <c r="B12" s="29"/>
       <c r="C12" s="10" t="s">
         <v>131</v>
       </c>
@@ -2804,8 +2927,8 @@
       <c r="F12" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="G12" s="32"/>
-      <c r="H12" s="33"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="31"/>
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
     </row>
@@ -2813,7 +2936,7 @@
       <c r="A13" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="27" t="s">
+      <c r="B13" s="29" t="s">
         <v>22</v>
       </c>
       <c r="C13" s="10" t="s">
@@ -2828,10 +2951,10 @@
       <c r="F13" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="G13" s="34" t="s">
+      <c r="G13" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="H13" s="35"/>
+      <c r="H13" s="33"/>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
     </row>
@@ -2839,7 +2962,7 @@
       <c r="A14" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="27"/>
+      <c r="B14" s="29"/>
       <c r="C14" s="10" t="s">
         <v>61</v>
       </c>
@@ -2852,8 +2975,8 @@
       <c r="F14" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="G14" s="34"/>
-      <c r="H14" s="35"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="33"/>
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
     </row>
@@ -2861,7 +2984,7 @@
       <c r="A15" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="27" t="s">
+      <c r="B15" s="29" t="s">
         <v>23</v>
       </c>
       <c r="C15" s="17" t="s">
@@ -2876,10 +2999,10 @@
       <c r="F15" s="17" t="s">
         <v>272</v>
       </c>
-      <c r="G15" s="34" t="s">
+      <c r="G15" s="32" t="s">
         <v>301</v>
       </c>
-      <c r="H15" s="35"/>
+      <c r="H15" s="33"/>
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
     </row>
@@ -2887,7 +3010,7 @@
       <c r="A16" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="27"/>
+      <c r="B16" s="29"/>
       <c r="C16" s="3" t="s">
         <v>302</v>
       </c>
@@ -2900,8 +3023,8 @@
       <c r="F16" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="G16" s="34"/>
-      <c r="H16" s="35"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="33"/>
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
     </row>
@@ -2909,7 +3032,7 @@
       <c r="A17" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="27" t="s">
+      <c r="B17" s="29" t="s">
         <v>327</v>
       </c>
       <c r="C17" s="22" t="s">
@@ -2929,7 +3052,7 @@
       <c r="A18" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="27"/>
+      <c r="B18" s="29"/>
       <c r="C18" s="22" t="s">
         <v>344</v>
       </c>
@@ -2944,149 +3067,221 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="43" t="s">
+      <c r="A19" t="s">
         <v>17</v>
       </c>
-      <c r="B19" t="s">
-        <v>325</v>
-      </c>
-      <c r="C19">
-        <v>98.29</v>
+      <c r="B19" s="29" t="s">
+        <v>360</v>
+      </c>
+      <c r="C19" s="26" t="s">
+        <v>385</v>
+      </c>
+      <c r="D19" s="26" t="s">
+        <v>386</v>
+      </c>
+      <c r="E19" s="26" t="s">
+        <v>387</v>
+      </c>
+      <c r="F19" s="26" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="43"/>
-      <c r="B20" t="s">
-        <v>326</v>
-      </c>
-      <c r="C20">
-        <v>98.23</v>
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="29"/>
+      <c r="C20" s="26" t="s">
+        <v>389</v>
+      </c>
+      <c r="D20" s="26" t="s">
+        <v>390</v>
+      </c>
+      <c r="E20" s="26" t="s">
+        <v>391</v>
+      </c>
+      <c r="F20" s="26" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="43" t="s">
-        <v>19</v>
+      <c r="A21" s="28" t="s">
+        <v>17</v>
       </c>
       <c r="B21" t="s">
         <v>325</v>
       </c>
       <c r="C21">
-        <v>99.72</v>
+        <v>98.29</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="43"/>
+      <c r="A22" s="28"/>
       <c r="B22" t="s">
         <v>326</v>
       </c>
       <c r="C22">
+        <v>98.23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" t="s">
+        <v>325</v>
+      </c>
+      <c r="C23">
+        <v>99.72</v>
+      </c>
+      <c r="D23" s="45"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="28"/>
+      <c r="B24" t="s">
+        <v>326</v>
+      </c>
+      <c r="C24">
         <v>99.7</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="I24" s="9" t="s">
-        <v>90</v>
-      </c>
+      <c r="I24" s="9"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I25" s="9"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D26" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="I26" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D27" s="9"/>
-      <c r="I27" s="9" t="s">
-        <v>25</v>
-      </c>
+      <c r="I26" s="9"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D28" s="9" t="s">
-        <v>24</v>
+        <v>89</v>
       </c>
       <c r="I28" s="9" t="s">
-        <v>26</v>
+        <v>89</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D29" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="I29" s="9" t="s">
-        <v>27</v>
-      </c>
+      <c r="D29" s="9"/>
+      <c r="I29" s="9"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D30" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I30" s="9"/>
+        <v>395</v>
+      </c>
+      <c r="I30" s="9" t="s">
+        <v>395</v>
+      </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D31" s="9" t="s">
-        <v>27</v>
+        <v>396</v>
       </c>
       <c r="I31" s="9" t="s">
-        <v>317</v>
+        <v>396</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D32" s="9"/>
+      <c r="D32" s="9" t="s">
+        <v>24</v>
+      </c>
       <c r="I32" s="9" t="s">
-        <v>318</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D33" s="9" t="s">
-        <v>321</v>
+        <v>25</v>
       </c>
       <c r="I33" s="9" t="s">
-        <v>319</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D34" s="9" t="s">
-        <v>322</v>
+        <v>26</v>
       </c>
       <c r="I34" s="9" t="s">
-        <v>320</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D35" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="I35" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D37" s="9" t="s">
+        <v>394</v>
+      </c>
+      <c r="I37" s="9" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="38" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D38" s="9" t="s">
+        <v>393</v>
+      </c>
+      <c r="I38" s="9" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="39" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D39" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="I39" s="9" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="40" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D40" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="I40" s="9" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="41" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D41" s="9" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="36" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D36" s="9" t="s">
+      <c r="I41" s="9" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="42" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D42" s="9" t="s">
         <v>324</v>
       </c>
+      <c r="I42" s="9" t="s">
+        <v>320</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B15:B16"/>
+  <mergeCells count="17">
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B9:B10"/>
     <mergeCell ref="G7:H8"/>
     <mergeCell ref="G9:H10"/>
     <mergeCell ref="G11:H12"/>
     <mergeCell ref="G13:H14"/>
     <mergeCell ref="G15:H16"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="G5:J5"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B19:B20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3095,11 +3290,12 @@
   <dimension ref="A3:J32"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="2" max="2" width="10.33203125" customWidth="1"/>
     <col min="3" max="3" width="22.21875" customWidth="1"/>
     <col min="4" max="4" width="20.21875" customWidth="1"/>
     <col min="5" max="5" width="19.5546875" customWidth="1"/>
@@ -3119,22 +3315,22 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="37"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B6" s="27"/>
+      <c r="B6" s="29"/>
       <c r="C6" s="2" t="s">
         <v>4</v>
       </c>
@@ -3156,7 +3352,7 @@
       <c r="A7" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="29" t="s">
         <v>18</v>
       </c>
       <c r="C7" s="10" t="s">
@@ -3171,10 +3367,10 @@
       <c r="F7" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="G7" s="32" t="s">
+      <c r="G7" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="H7" s="33"/>
+      <c r="H7" s="31"/>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
@@ -3182,7 +3378,7 @@
       <c r="A8" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="27"/>
+      <c r="B8" s="29"/>
       <c r="C8" s="10" t="s">
         <v>107</v>
       </c>
@@ -3195,8 +3391,8 @@
       <c r="F8" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="G8" s="32"/>
-      <c r="H8" s="33"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="31"/>
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
     </row>
@@ -3204,7 +3400,7 @@
       <c r="A9" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="29" t="s">
         <v>20</v>
       </c>
       <c r="C9" s="10" t="s">
@@ -3219,10 +3415,10 @@
       <c r="F9" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="G9" s="32" t="s">
+      <c r="G9" s="30" t="s">
         <v>91</v>
       </c>
-      <c r="H9" s="33"/>
+      <c r="H9" s="31"/>
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
@@ -3230,7 +3426,7 @@
       <c r="A10" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="27"/>
+      <c r="B10" s="29"/>
       <c r="C10" s="10" t="s">
         <v>147</v>
       </c>
@@ -3243,8 +3439,8 @@
       <c r="F10" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="G10" s="32"/>
-      <c r="H10" s="33"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="31"/>
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
     </row>
@@ -3252,7 +3448,7 @@
       <c r="A11" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="29" t="s">
         <v>21</v>
       </c>
       <c r="C11" s="10" t="s">
@@ -3267,10 +3463,10 @@
       <c r="F11" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="G11" s="32" t="s">
+      <c r="G11" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="H11" s="33"/>
+      <c r="H11" s="31"/>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
     </row>
@@ -3278,7 +3474,7 @@
       <c r="A12" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="27"/>
+      <c r="B12" s="29"/>
       <c r="C12" s="10" t="s">
         <v>177</v>
       </c>
@@ -3291,8 +3487,8 @@
       <c r="F12" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="G12" s="32"/>
-      <c r="H12" s="33"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="31"/>
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
     </row>
@@ -3300,7 +3496,7 @@
       <c r="A13" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="27" t="s">
+      <c r="B13" s="29" t="s">
         <v>22</v>
       </c>
       <c r="C13" s="10" t="s">
@@ -3315,10 +3511,10 @@
       <c r="F13" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="G13" s="34" t="s">
+      <c r="G13" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="H13" s="35"/>
+      <c r="H13" s="33"/>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
     </row>
@@ -3326,7 +3522,7 @@
       <c r="A14" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="27"/>
+      <c r="B14" s="29"/>
       <c r="C14" s="10" t="s">
         <v>69</v>
       </c>
@@ -3339,8 +3535,8 @@
       <c r="F14" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="G14" s="34"/>
-      <c r="H14" s="35"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="33"/>
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
     </row>
@@ -3348,7 +3544,7 @@
       <c r="A15" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="27" t="s">
+      <c r="B15" s="29" t="s">
         <v>23</v>
       </c>
       <c r="C15" s="17" t="s">
@@ -3363,10 +3559,10 @@
       <c r="F15" s="17" t="s">
         <v>284</v>
       </c>
-      <c r="G15" s="34" t="s">
+      <c r="G15" s="32" t="s">
         <v>214</v>
       </c>
-      <c r="H15" s="35"/>
+      <c r="H15" s="33"/>
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
     </row>
@@ -3374,7 +3570,7 @@
       <c r="A16" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="27"/>
+      <c r="B16" s="29"/>
       <c r="C16" s="3" t="s">
         <v>306</v>
       </c>
@@ -3387,8 +3583,8 @@
       <c r="F16" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="G16" s="34"/>
-      <c r="H16" s="35"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="33"/>
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
     </row>
@@ -3396,7 +3592,7 @@
       <c r="A17" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="27" t="s">
+      <c r="B17" s="29" t="s">
         <v>327</v>
       </c>
       <c r="C17" s="22" t="s">
@@ -3416,7 +3612,7 @@
       <c r="A18" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="27"/>
+      <c r="B18" s="29"/>
       <c r="C18" s="22" t="s">
         <v>348</v>
       </c>
@@ -3430,7 +3626,43 @@
         <v>351</v>
       </c>
     </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="29" t="s">
+        <v>360</v>
+      </c>
+      <c r="C19" s="26" t="s">
+        <v>381</v>
+      </c>
+      <c r="D19" s="26" t="s">
+        <v>382</v>
+      </c>
+      <c r="E19" s="26" t="s">
+        <v>383</v>
+      </c>
+      <c r="F19" s="26" t="s">
+        <v>384</v>
+      </c>
+    </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="29"/>
+      <c r="C20" s="26" t="s">
+        <v>377</v>
+      </c>
+      <c r="D20" s="26" t="s">
+        <v>378</v>
+      </c>
+      <c r="E20" s="26" t="s">
+        <v>379</v>
+      </c>
+      <c r="F20" s="26" t="s">
+        <v>380</v>
+      </c>
       <c r="I20" s="9" t="s">
         <v>90</v>
       </c>
@@ -3499,7 +3731,8 @@
       <c r="D32" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="15">
+    <mergeCell ref="B19:B20"/>
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="G9:H10"/>
@@ -3521,14 +3754,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61E5C165-CC35-4B6C-959C-2E76B8D5E7AF}">
-  <dimension ref="A3:J30"/>
+  <dimension ref="A3:J32"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="2" max="2" width="12.109375" customWidth="1"/>
     <col min="3" max="3" width="22.21875" customWidth="1"/>
     <col min="4" max="4" width="20.21875" customWidth="1"/>
     <col min="5" max="5" width="19.5546875" customWidth="1"/>
@@ -3548,22 +3782,22 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="37"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B6" s="27"/>
+      <c r="B6" s="29"/>
       <c r="C6" s="2" t="s">
         <v>4</v>
       </c>
@@ -3585,7 +3819,7 @@
       <c r="A7" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="29" t="s">
         <v>18</v>
       </c>
       <c r="C7" s="10" t="s">
@@ -3600,10 +3834,10 @@
       <c r="F7" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="G7" s="32" t="s">
+      <c r="G7" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="H7" s="33"/>
+      <c r="H7" s="31"/>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
@@ -3611,7 +3845,7 @@
       <c r="A8" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="27"/>
+      <c r="B8" s="29"/>
       <c r="C8" s="10" t="s">
         <v>115</v>
       </c>
@@ -3624,8 +3858,8 @@
       <c r="F8" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="G8" s="32"/>
-      <c r="H8" s="33"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="31"/>
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
     </row>
@@ -3633,7 +3867,7 @@
       <c r="A9" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="29" t="s">
         <v>20</v>
       </c>
       <c r="C9" s="10" t="s">
@@ -3648,10 +3882,10 @@
       <c r="F9" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="G9" s="32" t="s">
+      <c r="G9" s="30" t="s">
         <v>91</v>
       </c>
-      <c r="H9" s="33"/>
+      <c r="H9" s="31"/>
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
@@ -3659,7 +3893,7 @@
       <c r="A10" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="27"/>
+      <c r="B10" s="29"/>
       <c r="C10" s="10" t="s">
         <v>155</v>
       </c>
@@ -3672,8 +3906,8 @@
       <c r="F10" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="G10" s="32"/>
-      <c r="H10" s="33"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="31"/>
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
     </row>
@@ -3681,7 +3915,7 @@
       <c r="A11" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="29" t="s">
         <v>21</v>
       </c>
       <c r="C11" s="10" t="s">
@@ -3696,10 +3930,10 @@
       <c r="F11" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="G11" s="32" t="s">
+      <c r="G11" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="H11" s="33"/>
+      <c r="H11" s="31"/>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
     </row>
@@ -3707,7 +3941,7 @@
       <c r="A12" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="27"/>
+      <c r="B12" s="29"/>
       <c r="C12" s="10" t="s">
         <v>189</v>
       </c>
@@ -3720,8 +3954,8 @@
       <c r="F12" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="G12" s="32"/>
-      <c r="H12" s="33"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="31"/>
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
     </row>
@@ -3729,7 +3963,7 @@
       <c r="A13" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="27" t="s">
+      <c r="B13" s="29" t="s">
         <v>22</v>
       </c>
       <c r="C13" s="10" t="s">
@@ -3744,10 +3978,10 @@
       <c r="F13" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="G13" s="34" t="s">
+      <c r="G13" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="H13" s="35"/>
+      <c r="H13" s="33"/>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
     </row>
@@ -3755,7 +3989,7 @@
       <c r="A14" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="27"/>
+      <c r="B14" s="29"/>
       <c r="C14" s="10" t="s">
         <v>77</v>
       </c>
@@ -3768,8 +4002,8 @@
       <c r="F14" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="G14" s="34"/>
-      <c r="H14" s="35"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="33"/>
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
     </row>
@@ -3777,7 +4011,7 @@
       <c r="A15" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="27" t="s">
+      <c r="B15" s="29" t="s">
         <v>23</v>
       </c>
       <c r="C15" s="25" t="s">
@@ -3792,10 +4026,10 @@
       <c r="F15" s="25" t="s">
         <v>176</v>
       </c>
-      <c r="G15" s="34" t="s">
+      <c r="G15" s="32" t="s">
         <v>214</v>
       </c>
-      <c r="H15" s="35"/>
+      <c r="H15" s="33"/>
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
     </row>
@@ -3803,7 +4037,7 @@
       <c r="A16" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="27"/>
+      <c r="B16" s="29"/>
       <c r="C16" s="3" t="s">
         <v>273</v>
       </c>
@@ -3816,8 +4050,8 @@
       <c r="F16" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="G16" s="34"/>
-      <c r="H16" s="35"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="33"/>
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
     </row>
@@ -3825,7 +4059,7 @@
       <c r="A17" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="27" t="s">
+      <c r="B17" s="29" t="s">
         <v>327</v>
       </c>
       <c r="C17" s="22" t="s">
@@ -3845,7 +4079,7 @@
       <c r="A18" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="27"/>
+      <c r="B18" s="29"/>
       <c r="C18" s="22" t="s">
         <v>352</v>
       </c>
@@ -3859,37 +4093,67 @@
         <v>355</v>
       </c>
     </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="29" t="s">
+        <v>360</v>
+      </c>
+      <c r="C19" s="26" t="s">
+        <v>369</v>
+      </c>
+      <c r="D19" s="26" t="s">
+        <v>370</v>
+      </c>
+      <c r="E19" s="26" t="s">
+        <v>371</v>
+      </c>
+      <c r="F19" s="26" t="s">
+        <v>372</v>
+      </c>
+    </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D20" s="9" t="s">
-        <v>89</v>
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="29"/>
+      <c r="C20" s="26" t="s">
+        <v>373</v>
+      </c>
+      <c r="D20" s="26" t="s">
+        <v>374</v>
+      </c>
+      <c r="E20" s="26" t="s">
+        <v>375</v>
+      </c>
+      <c r="F20" s="26" t="s">
+        <v>376</v>
       </c>
       <c r="I20" s="9" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D21" s="9"/>
       <c r="I21" s="9"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D22" s="9" t="s">
-        <v>24</v>
+        <v>89</v>
       </c>
       <c r="I22" s="9" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D23" s="9" t="s">
-        <v>25</v>
-      </c>
+      <c r="D23" s="9"/>
       <c r="I23" s="9" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D24" s="9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I24" s="9" t="s">
         <v>26</v>
@@ -3897,18 +4161,22 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D25" s="9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I25" s="9" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D26" s="9"/>
+      <c r="D26" s="9" t="s">
+        <v>26</v>
+      </c>
       <c r="I26" s="9"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D27" s="9"/>
+      <c r="D27" s="9" t="s">
+        <v>27</v>
+      </c>
       <c r="I27" s="9"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
@@ -3923,8 +4191,15 @@
       <c r="D30" s="9"/>
       <c r="I30" s="9"/>
     </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D31" s="9"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D32" s="9"/>
+    </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="15">
+    <mergeCell ref="B19:B20"/>
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="G9:H10"/>
@@ -3948,13 +4223,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55FC768F-9925-423C-8CB8-7B0AC8AB7AFE}">
   <dimension ref="A3:J30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="8.88671875" style="12"/>
+    <col min="1" max="1" width="8.88671875" style="12"/>
+    <col min="2" max="2" width="12" style="12" customWidth="1"/>
     <col min="3" max="3" width="22.21875" style="12" customWidth="1"/>
     <col min="4" max="4" width="20.21875" style="12" customWidth="1"/>
     <col min="5" max="5" width="19.5546875" style="12" customWidth="1"/>
@@ -3975,22 +4251,22 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="39" t="s">
+      <c r="C5" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="42"/>
-      <c r="J5" s="42"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="44"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B6" s="36"/>
+      <c r="B6" s="38"/>
       <c r="C6" s="13" t="s">
         <v>4</v>
       </c>
@@ -4012,7 +4288,7 @@
       <c r="A7" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="38" t="s">
         <v>18</v>
       </c>
       <c r="C7" s="13" t="s">
@@ -4027,10 +4303,10 @@
       <c r="F7" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="G7" s="37" t="s">
+      <c r="G7" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="H7" s="38"/>
+      <c r="H7" s="40"/>
       <c r="I7" s="16"/>
       <c r="J7" s="16"/>
     </row>
@@ -4038,7 +4314,7 @@
       <c r="A8" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="36"/>
+      <c r="B8" s="38"/>
       <c r="C8" s="13" t="s">
         <v>123</v>
       </c>
@@ -4051,8 +4327,8 @@
       <c r="F8" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="G8" s="37"/>
-      <c r="H8" s="38"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="40"/>
       <c r="I8" s="16"/>
       <c r="J8" s="16"/>
     </row>
@@ -4060,7 +4336,7 @@
       <c r="A9" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="36" t="s">
+      <c r="B9" s="38" t="s">
         <v>20</v>
       </c>
       <c r="C9" s="13" t="s">
@@ -4075,10 +4351,10 @@
       <c r="F9" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="G9" s="37" t="s">
+      <c r="G9" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="H9" s="38"/>
+      <c r="H9" s="40"/>
       <c r="I9" s="16"/>
       <c r="J9" s="16"/>
     </row>
@@ -4086,7 +4362,7 @@
       <c r="A10" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="36"/>
+      <c r="B10" s="38"/>
       <c r="C10" s="13" t="s">
         <v>163</v>
       </c>
@@ -4099,8 +4375,8 @@
       <c r="F10" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="G10" s="37"/>
-      <c r="H10" s="38"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="40"/>
       <c r="I10" s="16"/>
       <c r="J10" s="16"/>
     </row>
@@ -4108,7 +4384,7 @@
       <c r="A11" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="36" t="s">
+      <c r="B11" s="38" t="s">
         <v>21</v>
       </c>
       <c r="C11" s="13" t="s">
@@ -4123,10 +4399,10 @@
       <c r="F11" s="13" t="s">
         <v>196</v>
       </c>
-      <c r="G11" s="37" t="s">
+      <c r="G11" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="H11" s="38"/>
+      <c r="H11" s="40"/>
       <c r="I11" s="16"/>
       <c r="J11" s="16"/>
     </row>
@@ -4134,7 +4410,7 @@
       <c r="A12" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="36"/>
+      <c r="B12" s="38"/>
       <c r="C12" s="13" t="s">
         <v>197</v>
       </c>
@@ -4147,8 +4423,8 @@
       <c r="F12" s="13" t="s">
         <v>200</v>
       </c>
-      <c r="G12" s="37"/>
-      <c r="H12" s="38"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="40"/>
       <c r="I12" s="16"/>
       <c r="J12" s="16"/>
     </row>
@@ -4156,7 +4432,7 @@
       <c r="A13" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="36" t="s">
+      <c r="B13" s="38" t="s">
         <v>22</v>
       </c>
       <c r="C13" s="13" t="s">
@@ -4171,10 +4447,10 @@
       <c r="F13" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="G13" s="37" t="s">
+      <c r="G13" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="H13" s="38"/>
+      <c r="H13" s="40"/>
       <c r="I13" s="16"/>
       <c r="J13" s="16"/>
     </row>
@@ -4182,7 +4458,7 @@
       <c r="A14" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="36"/>
+      <c r="B14" s="38"/>
       <c r="C14" s="13" t="s">
         <v>85</v>
       </c>
@@ -4195,8 +4471,8 @@
       <c r="F14" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="G14" s="37"/>
-      <c r="H14" s="38"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="40"/>
       <c r="I14" s="16"/>
       <c r="J14" s="16"/>
     </row>
@@ -4204,7 +4480,7 @@
       <c r="A15" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="36" t="s">
+      <c r="B15" s="38" t="s">
         <v>23</v>
       </c>
       <c r="C15" s="17" t="s">
@@ -4219,10 +4495,10 @@
       <c r="F15" s="17" t="s">
         <v>251</v>
       </c>
-      <c r="G15" s="37" t="s">
+      <c r="G15" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="H15" s="38"/>
+      <c r="H15" s="40"/>
       <c r="I15" s="18"/>
       <c r="J15" s="18"/>
     </row>
@@ -4230,7 +4506,7 @@
       <c r="A16" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="36"/>
+      <c r="B16" s="38"/>
       <c r="C16" s="19" t="s">
         <v>278</v>
       </c>
@@ -4243,8 +4519,8 @@
       <c r="F16" s="20" t="s">
         <v>277</v>
       </c>
-      <c r="G16" s="37"/>
-      <c r="H16" s="38"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="40"/>
       <c r="I16" s="18"/>
       <c r="J16" s="18"/>
     </row>
@@ -4252,7 +4528,7 @@
       <c r="A17" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="27" t="s">
+      <c r="B17" s="29" t="s">
         <v>327</v>
       </c>
       <c r="C17" s="22" t="s">
@@ -4272,7 +4548,7 @@
       <c r="A18" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="27"/>
+      <c r="B18" s="29"/>
       <c r="C18" s="22" t="s">
         <v>356</v>
       </c>
@@ -4286,9 +4562,42 @@
         <v>359</v>
       </c>
     </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="29" t="s">
+        <v>360</v>
+      </c>
+      <c r="C19" s="26" t="s">
+        <v>365</v>
+      </c>
+      <c r="D19" s="26" t="s">
+        <v>366</v>
+      </c>
+      <c r="E19" s="26" t="s">
+        <v>367</v>
+      </c>
+      <c r="F19" s="26" t="s">
+        <v>368</v>
+      </c>
+    </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D20" s="21" t="s">
-        <v>89</v>
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="29"/>
+      <c r="C20" s="26" t="s">
+        <v>361</v>
+      </c>
+      <c r="D20" s="26" t="s">
+        <v>362</v>
+      </c>
+      <c r="E20" s="26" t="s">
+        <v>363</v>
+      </c>
+      <c r="F20" s="26" t="s">
+        <v>364</v>
       </c>
       <c r="I20" s="21" t="s">
         <v>90</v>
@@ -4351,7 +4660,8 @@
       <c r="I30" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="15">
+    <mergeCell ref="B19:B20"/>
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="G9:H10"/>

--- a/SA/results/SummarySA.xlsx
+++ b/SA/results/SummarySA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\w63x712\Documents\Machine_Learning\HSI_selection2\SA\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3074DCD2-A266-4442-A58F-4F8A37372EC6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ED3D472-0DBA-4AC6-96CB-48F56C7634ED}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{D4E1857A-7969-4B6E-A5E0-8AB94818FDA4}"/>
   </bookViews>
@@ -2729,8 +2729,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27D34A67-7EA1-4E46-B651-5814B8ED44C8}">
   <dimension ref="A3:J42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37:D42"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/SA/results/SummarySA.xlsx
+++ b/SA/results/SummarySA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\w63x712\Documents\Machine_Learning\HSI_selection2\SA\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ED3D472-0DBA-4AC6-96CB-48F56C7634ED}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60894E68-E151-442B-8688-DE5C753B6A1B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{D4E1857A-7969-4B6E-A5E0-8AB94818FDA4}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="20640" windowHeight="11160" firstSheet="1" activeTab="5" xr2:uid="{D4E1857A-7969-4B6E-A5E0-8AB94818FDA4}"/>
   </bookViews>
   <sheets>
     <sheet name="200 bands" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="431">
   <si>
     <t>SVM</t>
   </si>
@@ -1236,6 +1236,102 @@
   </si>
   <si>
     <t>Ttest_relResult(statistic=8.479237447463724, pvalue=1.3865720526517418e-05)</t>
+  </si>
+  <si>
+    <t>SR-SSIM</t>
+  </si>
+  <si>
+    <t>97.635% (+/- 0.237%)</t>
+  </si>
+  <si>
+    <t>98.951% (+/- 0.107%)</t>
+  </si>
+  <si>
+    <t>98.974% (+/- 0.100%)</t>
+  </si>
+  <si>
+    <t>98.961% (+/- 0.102%)</t>
+  </si>
+  <si>
+    <t>97.227% (+/- 0.295%)</t>
+  </si>
+  <si>
+    <t>98.640% (+/- 0.309%)</t>
+  </si>
+  <si>
+    <t>98.714% (+/- 0.177%)</t>
+  </si>
+  <si>
+    <t>98.670% (+/- 0.240%)</t>
+  </si>
+  <si>
+    <t>97.103% (+/- 0.191%)</t>
+  </si>
+  <si>
+    <t>98.702% (+/- 0.104%)</t>
+  </si>
+  <si>
+    <t>98.667% (+/- 0.111%)</t>
+  </si>
+  <si>
+    <t>96.610% (+/- 0.223%)</t>
+  </si>
+  <si>
+    <t>98.284% (+/- 0.141%)</t>
+  </si>
+  <si>
+    <t>98.307% (+/- 0.110%)</t>
+  </si>
+  <si>
+    <t>96.567% (+/- 0.228%)</t>
+  </si>
+  <si>
+    <t>98.351% (+/- 0.146%)</t>
+  </si>
+  <si>
+    <t>98.399% (+/- 0.141%)</t>
+  </si>
+  <si>
+    <t>98.370% (+/- 0.135%)</t>
+  </si>
+  <si>
+    <t>95.435% (+/- 0.382%)</t>
+  </si>
+  <si>
+    <t>97.532% (+/- 0.300%)</t>
+  </si>
+  <si>
+    <t>97.462% (+/- 0.352%)</t>
+  </si>
+  <si>
+    <t>97.464% (+/- 0.303%)</t>
+  </si>
+  <si>
+    <t>95.343% (+/- 0.258%)</t>
+  </si>
+  <si>
+    <t>97.527% (+/- 0.304%)</t>
+  </si>
+  <si>
+    <t>97.531% (+/- 0.200%)</t>
+  </si>
+  <si>
+    <t>97.509% (+/- 0.247%)</t>
+  </si>
+  <si>
+    <t>97.888% (+/- 0.216%)</t>
+  </si>
+  <si>
+    <t>99.113% (+/- 0.105%)</t>
+  </si>
+  <si>
+    <t>99.073% (+/- 0.087%)</t>
+  </si>
+  <si>
+    <t>99.091% (+/- 0.094%)</t>
+  </si>
+  <si>
+    <t>selection=[5, 47, 61, 81, 201]</t>
   </si>
 </sst>
 </file>
@@ -1293,15 +1389,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1346,12 +1448,38 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1423,14 +1551,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1444,17 +1590,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1477,8 +1614,23 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2080,10 +2232,10 @@
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B18" s="27" t="s">
+      <c r="B18" s="30" t="s">
         <v>313</v>
       </c>
-      <c r="C18" s="27"/>
+      <c r="C18" s="30"/>
       <c r="D18" s="23" t="s">
         <v>312</v>
       </c>
@@ -2300,8 +2452,8 @@
       <c r="D35" s="24"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B36" s="27"/>
-      <c r="C36" s="27"/>
+      <c r="B36" s="30"/>
+      <c r="C36" s="30"/>
       <c r="D36" s="23"/>
       <c r="E36" s="23"/>
       <c r="F36" s="23"/>
@@ -2503,8 +2655,8 @@
       <c r="D53" s="24"/>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B54" s="27"/>
-      <c r="C54" s="27"/>
+      <c r="B54" s="30"/>
+      <c r="C54" s="30"/>
       <c r="D54" s="23"/>
       <c r="E54" s="23"/>
       <c r="F54" s="23"/>
@@ -2706,8 +2858,8 @@
       <c r="D71" s="24"/>
     </row>
     <row r="72" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B72" s="27"/>
-      <c r="C72" s="27"/>
+      <c r="B72" s="30"/>
+      <c r="C72" s="30"/>
       <c r="D72" s="23"/>
       <c r="E72" s="23"/>
       <c r="F72" s="23"/>
@@ -2727,10 +2879,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27D34A67-7EA1-4E46-B651-5814B8ED44C8}">
-  <dimension ref="A3:J42"/>
+  <dimension ref="A3:J44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13:H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2755,22 +2907,22 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="34" t="s">
+      <c r="C5" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="37"/>
-      <c r="J5" s="37"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B6" s="29"/>
+      <c r="B6" s="31"/>
       <c r="C6" s="2" t="s">
         <v>4</v>
       </c>
@@ -2792,7 +2944,7 @@
       <c r="A7" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="31" t="s">
         <v>18</v>
       </c>
       <c r="C7" s="10" t="s">
@@ -2807,10 +2959,10 @@
       <c r="F7" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="G7" s="30" t="s">
+      <c r="G7" s="36" t="s">
         <v>92</v>
       </c>
-      <c r="H7" s="31"/>
+      <c r="H7" s="37"/>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
@@ -2818,7 +2970,7 @@
       <c r="A8" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="29"/>
+      <c r="B8" s="31"/>
       <c r="C8" s="10" t="s">
         <v>99</v>
       </c>
@@ -2831,8 +2983,8 @@
       <c r="F8" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="G8" s="30"/>
-      <c r="H8" s="31"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="37"/>
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
     </row>
@@ -2840,7 +2992,7 @@
       <c r="A9" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="31" t="s">
         <v>20</v>
       </c>
       <c r="C9" s="10" t="s">
@@ -2855,10 +3007,10 @@
       <c r="F9" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="G9" s="30" t="s">
+      <c r="G9" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="H9" s="31"/>
+      <c r="H9" s="37"/>
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
@@ -2866,7 +3018,7 @@
       <c r="A10" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="29"/>
+      <c r="B10" s="31"/>
       <c r="C10" s="10" t="s">
         <v>139</v>
       </c>
@@ -2879,8 +3031,8 @@
       <c r="F10" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="G10" s="30"/>
-      <c r="H10" s="31"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="37"/>
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
     </row>
@@ -2888,7 +3040,7 @@
       <c r="A11" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="31" t="s">
         <v>21</v>
       </c>
       <c r="C11" s="10" t="s">
@@ -2903,10 +3055,10 @@
       <c r="F11" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="G11" s="30" t="s">
+      <c r="G11" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="H11" s="31"/>
+      <c r="H11" s="37"/>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
     </row>
@@ -2914,7 +3066,7 @@
       <c r="A12" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="29"/>
+      <c r="B12" s="31"/>
       <c r="C12" s="10" t="s">
         <v>131</v>
       </c>
@@ -2927,8 +3079,8 @@
       <c r="F12" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="G12" s="30"/>
-      <c r="H12" s="31"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="37"/>
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
     </row>
@@ -2936,332 +3088,392 @@
       <c r="A13" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="G13" s="32" t="s">
-        <v>94</v>
-      </c>
-      <c r="H13" s="33"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
+      <c r="B13" s="48" t="s">
+        <v>399</v>
+      </c>
+      <c r="C13" s="49" t="s">
+        <v>426</v>
+      </c>
+      <c r="D13" s="49" t="s">
+        <v>427</v>
+      </c>
+      <c r="E13" s="49" t="s">
+        <v>428</v>
+      </c>
+      <c r="F13" s="50" t="s">
+        <v>429</v>
+      </c>
+      <c r="G13" s="51" t="s">
+        <v>430</v>
+      </c>
+      <c r="H13" s="52"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="29"/>
-      <c r="C14" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="G14" s="32"/>
-      <c r="H14" s="33"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
+      <c r="B14" s="53"/>
+      <c r="C14" s="49" t="s">
+        <v>400</v>
+      </c>
+      <c r="D14" s="49" t="s">
+        <v>401</v>
+      </c>
+      <c r="E14" s="49" t="s">
+        <v>402</v>
+      </c>
+      <c r="F14" s="50" t="s">
+        <v>403</v>
+      </c>
+      <c r="G14" s="51"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="27"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>269</v>
-      </c>
-      <c r="D15" s="17" t="s">
-        <v>270</v>
-      </c>
-      <c r="E15" s="17" t="s">
-        <v>271</v>
-      </c>
-      <c r="F15" s="17" t="s">
-        <v>272</v>
-      </c>
-      <c r="G15" s="32" t="s">
-        <v>301</v>
-      </c>
-      <c r="H15" s="33"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
+      <c r="B15" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="G15" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="H15" s="39"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="29"/>
-      <c r="C16" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="G16" s="32"/>
-      <c r="H16" s="33"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B16" s="31"/>
+      <c r="C16" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="G16" s="38"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="29" t="s">
-        <v>327</v>
-      </c>
-      <c r="C17" s="22" t="s">
-        <v>328</v>
-      </c>
-      <c r="D17" s="22" t="s">
-        <v>329</v>
-      </c>
-      <c r="E17" s="22" t="s">
-        <v>330</v>
-      </c>
-      <c r="F17" s="22" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B17" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>269</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>270</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="F17" s="17" t="s">
+        <v>272</v>
+      </c>
+      <c r="G17" s="38" t="s">
+        <v>301</v>
+      </c>
+      <c r="H17" s="39"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="29"/>
-      <c r="C18" s="22" t="s">
-        <v>344</v>
-      </c>
-      <c r="D18" s="22" t="s">
-        <v>345</v>
-      </c>
-      <c r="E18" s="22" t="s">
-        <v>346</v>
-      </c>
-      <c r="F18" s="22" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B18" s="31"/>
+      <c r="C18" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="G18" s="38"/>
+      <c r="H18" s="39"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="29" t="s">
-        <v>360</v>
-      </c>
-      <c r="C19" s="26" t="s">
-        <v>385</v>
-      </c>
-      <c r="D19" s="26" t="s">
-        <v>386</v>
-      </c>
-      <c r="E19" s="26" t="s">
-        <v>387</v>
-      </c>
-      <c r="F19" s="26" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B19" s="31" t="s">
+        <v>327</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>328</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>329</v>
+      </c>
+      <c r="E19" s="22" t="s">
+        <v>330</v>
+      </c>
+      <c r="F19" s="22" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="29"/>
-      <c r="C20" s="26" t="s">
+      <c r="B20" s="31"/>
+      <c r="C20" s="22" t="s">
+        <v>344</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>345</v>
+      </c>
+      <c r="E20" s="22" t="s">
+        <v>346</v>
+      </c>
+      <c r="F20" s="22" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="31" t="s">
+        <v>360</v>
+      </c>
+      <c r="C21" s="26" t="s">
+        <v>385</v>
+      </c>
+      <c r="D21" s="26" t="s">
+        <v>386</v>
+      </c>
+      <c r="E21" s="26" t="s">
+        <v>387</v>
+      </c>
+      <c r="F21" s="26" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="31"/>
+      <c r="C22" s="26" t="s">
         <v>389</v>
       </c>
-      <c r="D20" s="26" t="s">
+      <c r="D22" s="26" t="s">
         <v>390</v>
       </c>
-      <c r="E20" s="26" t="s">
+      <c r="E22" s="26" t="s">
         <v>391</v>
       </c>
-      <c r="F20" s="26" t="s">
+      <c r="F22" s="26" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="28" t="s">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="40" t="s">
         <v>17</v>
-      </c>
-      <c r="B21" t="s">
-        <v>325</v>
-      </c>
-      <c r="C21">
-        <v>98.29</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="28"/>
-      <c r="B22" t="s">
-        <v>326</v>
-      </c>
-      <c r="C22">
-        <v>98.23</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="28" t="s">
-        <v>19</v>
       </c>
       <c r="B23" t="s">
         <v>325</v>
       </c>
       <c r="C23">
-        <v>99.72</v>
-      </c>
-      <c r="D23" s="45"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="28"/>
+        <v>98.29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="40"/>
       <c r="B24" t="s">
         <v>326</v>
       </c>
       <c r="C24">
+        <v>98.23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25" t="s">
+        <v>325</v>
+      </c>
+      <c r="C25">
+        <v>99.72</v>
+      </c>
+      <c r="D25" s="29"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="40"/>
+      <c r="B26" t="s">
+        <v>326</v>
+      </c>
+      <c r="C26">
         <v>99.7</v>
       </c>
-      <c r="I24" s="9"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="I25" s="9"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I26" s="9"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D28" s="9" t="s">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I27" s="9"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I28" s="9"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D30" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="I28" s="9" t="s">
+      <c r="I30" s="9" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D29" s="9"/>
-      <c r="I29" s="9"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D30" s="9" t="s">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D31" s="9"/>
+      <c r="I31" s="9"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D32" s="9" t="s">
         <v>395</v>
       </c>
-      <c r="I30" s="9" t="s">
+      <c r="I32" s="9" t="s">
         <v>395</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D31" s="9" t="s">
-        <v>396</v>
-      </c>
-      <c r="I31" s="9" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D32" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="I32" s="9" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="33" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D33" s="9" t="s">
-        <v>25</v>
+        <v>396</v>
       </c>
       <c r="I33" s="9" t="s">
-        <v>25</v>
+        <v>396</v>
       </c>
     </row>
     <row r="34" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D34" s="9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I34" s="9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D35" s="9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I35" s="9" t="s">
-        <v>27</v>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D36" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I36" s="9" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="37" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D37" s="9" t="s">
-        <v>394</v>
+        <v>27</v>
       </c>
       <c r="I37" s="9" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="38" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D38" s="9" t="s">
-        <v>393</v>
-      </c>
-      <c r="I38" s="9" t="s">
-        <v>397</v>
+        <v>27</v>
       </c>
     </row>
     <row r="39" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D39" s="9" t="s">
-        <v>321</v>
+        <v>394</v>
       </c>
       <c r="I39" s="9" t="s">
-        <v>317</v>
+        <v>398</v>
       </c>
     </row>
     <row r="40" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D40" s="9" t="s">
-        <v>322</v>
+        <v>393</v>
       </c>
       <c r="I40" s="9" t="s">
-        <v>318</v>
+        <v>397</v>
       </c>
     </row>
     <row r="41" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D41" s="9" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="I41" s="9" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="42" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D42" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="I42" s="9" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="43" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D43" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="I43" s="9" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="44" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D44" s="9" t="s">
         <v>324</v>
       </c>
-      <c r="I42" s="9" t="s">
+      <c r="I44" s="9" t="s">
         <v>320</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="19">
+    <mergeCell ref="G11:H12"/>
+    <mergeCell ref="G15:H16"/>
+    <mergeCell ref="G17:H18"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="G13:H14"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:F5"/>
     <mergeCell ref="G5:J5"/>
@@ -3269,16 +3481,6 @@
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="G7:H8"/>
     <mergeCell ref="G9:H10"/>
-    <mergeCell ref="G11:H12"/>
-    <mergeCell ref="G13:H14"/>
-    <mergeCell ref="G15:H16"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B19:B20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3287,10 +3489,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91329088-2726-4B19-B800-EBB8BBF3C82A}">
-  <dimension ref="A3:J32"/>
+  <dimension ref="A3:J34"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="G13" sqref="G13:H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3315,22 +3517,22 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="34" t="s">
+      <c r="C5" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="37"/>
-      <c r="J5" s="37"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B6" s="29"/>
+      <c r="B6" s="31"/>
       <c r="C6" s="2" t="s">
         <v>4</v>
       </c>
@@ -3352,7 +3554,7 @@
       <c r="A7" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="31" t="s">
         <v>18</v>
       </c>
       <c r="C7" s="10" t="s">
@@ -3367,10 +3569,10 @@
       <c r="F7" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="G7" s="30" t="s">
+      <c r="G7" s="36" t="s">
         <v>92</v>
       </c>
-      <c r="H7" s="31"/>
+      <c r="H7" s="37"/>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
@@ -3378,7 +3580,7 @@
       <c r="A8" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="29"/>
+      <c r="B8" s="31"/>
       <c r="C8" s="10" t="s">
         <v>107</v>
       </c>
@@ -3391,8 +3593,8 @@
       <c r="F8" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="G8" s="30"/>
-      <c r="H8" s="31"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="37"/>
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
     </row>
@@ -3400,7 +3602,7 @@
       <c r="A9" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="31" t="s">
         <v>20</v>
       </c>
       <c r="C9" s="10" t="s">
@@ -3415,10 +3617,10 @@
       <c r="F9" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="G9" s="30" t="s">
+      <c r="G9" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="H9" s="31"/>
+      <c r="H9" s="37"/>
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
@@ -3426,7 +3628,7 @@
       <c r="A10" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="29"/>
+      <c r="B10" s="31"/>
       <c r="C10" s="10" t="s">
         <v>147</v>
       </c>
@@ -3439,8 +3641,8 @@
       <c r="F10" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="G10" s="30"/>
-      <c r="H10" s="31"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="37"/>
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
     </row>
@@ -3448,7 +3650,7 @@
       <c r="A11" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="31" t="s">
         <v>21</v>
       </c>
       <c r="C11" s="10" t="s">
@@ -3463,10 +3665,10 @@
       <c r="F11" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="G11" s="30" t="s">
+      <c r="G11" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="H11" s="31"/>
+      <c r="H11" s="37"/>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
     </row>
@@ -3474,7 +3676,7 @@
       <c r="A12" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="29"/>
+      <c r="B12" s="31"/>
       <c r="C12" s="10" t="s">
         <v>177</v>
       </c>
@@ -3487,8 +3689,8 @@
       <c r="F12" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="G12" s="30"/>
-      <c r="H12" s="31"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="37"/>
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
     </row>
@@ -3496,244 +3698,293 @@
       <c r="A13" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="G13" s="32" t="s">
-        <v>94</v>
-      </c>
-      <c r="H13" s="33"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
+      <c r="B13" s="48" t="s">
+        <v>399</v>
+      </c>
+      <c r="C13" s="49" t="s">
+        <v>404</v>
+      </c>
+      <c r="D13" s="49" t="s">
+        <v>405</v>
+      </c>
+      <c r="E13" s="49" t="s">
+        <v>406</v>
+      </c>
+      <c r="F13" s="50" t="s">
+        <v>407</v>
+      </c>
+      <c r="G13" s="51" t="s">
+        <v>430</v>
+      </c>
+      <c r="H13" s="52"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="29"/>
-      <c r="C14" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="G14" s="32"/>
-      <c r="H14" s="33"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
+      <c r="B14" s="53"/>
+      <c r="C14" s="49" t="s">
+        <v>408</v>
+      </c>
+      <c r="D14" s="49" t="s">
+        <v>156</v>
+      </c>
+      <c r="E14" s="49" t="s">
+        <v>409</v>
+      </c>
+      <c r="F14" s="50" t="s">
+        <v>410</v>
+      </c>
+      <c r="G14" s="51"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="27"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>281</v>
-      </c>
-      <c r="D15" s="17" t="s">
-        <v>282</v>
-      </c>
-      <c r="E15" s="17" t="s">
-        <v>283</v>
-      </c>
-      <c r="F15" s="17" t="s">
-        <v>284</v>
-      </c>
-      <c r="G15" s="32" t="s">
-        <v>214</v>
-      </c>
-      <c r="H15" s="33"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
+      <c r="B15" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="G15" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="H15" s="39"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="29"/>
-      <c r="C16" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>309</v>
-      </c>
-      <c r="G16" s="32"/>
-      <c r="H16" s="33"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B16" s="31"/>
+      <c r="C16" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="G16" s="38"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="29" t="s">
-        <v>327</v>
-      </c>
-      <c r="C17" s="22" t="s">
-        <v>332</v>
-      </c>
-      <c r="D17" s="22" t="s">
-        <v>333</v>
-      </c>
-      <c r="E17" s="22" t="s">
-        <v>334</v>
-      </c>
-      <c r="F17" s="22" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B17" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>281</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>282</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>283</v>
+      </c>
+      <c r="F17" s="17" t="s">
+        <v>284</v>
+      </c>
+      <c r="G17" s="38" t="s">
+        <v>214</v>
+      </c>
+      <c r="H17" s="39"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="29"/>
-      <c r="C18" s="22" t="s">
-        <v>348</v>
-      </c>
-      <c r="D18" s="22" t="s">
-        <v>349</v>
-      </c>
-      <c r="E18" s="22" t="s">
-        <v>350</v>
-      </c>
-      <c r="F18" s="22" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B18" s="31"/>
+      <c r="C18" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="G18" s="38"/>
+      <c r="H18" s="39"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="29" t="s">
-        <v>360</v>
-      </c>
-      <c r="C19" s="26" t="s">
-        <v>381</v>
-      </c>
-      <c r="D19" s="26" t="s">
-        <v>382</v>
-      </c>
-      <c r="E19" s="26" t="s">
-        <v>383</v>
-      </c>
-      <c r="F19" s="26" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B19" s="31" t="s">
+        <v>327</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>332</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>333</v>
+      </c>
+      <c r="E19" s="22" t="s">
+        <v>334</v>
+      </c>
+      <c r="F19" s="22" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="29"/>
-      <c r="C20" s="26" t="s">
+      <c r="B20" s="31"/>
+      <c r="C20" s="22" t="s">
+        <v>348</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>349</v>
+      </c>
+      <c r="E20" s="22" t="s">
+        <v>350</v>
+      </c>
+      <c r="F20" s="22" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="31" t="s">
+        <v>360</v>
+      </c>
+      <c r="C21" s="26" t="s">
+        <v>381</v>
+      </c>
+      <c r="D21" s="26" t="s">
+        <v>382</v>
+      </c>
+      <c r="E21" s="26" t="s">
+        <v>383</v>
+      </c>
+      <c r="F21" s="26" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="31"/>
+      <c r="C22" s="26" t="s">
         <v>377</v>
       </c>
-      <c r="D20" s="26" t="s">
+      <c r="D22" s="26" t="s">
         <v>378</v>
       </c>
-      <c r="E20" s="26" t="s">
+      <c r="E22" s="26" t="s">
         <v>379</v>
       </c>
-      <c r="F20" s="26" t="s">
+      <c r="F22" s="26" t="s">
         <v>380</v>
       </c>
-      <c r="I20" s="9" t="s">
+      <c r="I22" s="9" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="I21" s="9"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D22" s="9" t="s">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I23" s="9"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D24" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="I22" s="9" t="s">
+      <c r="I24" s="9" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D23" s="9"/>
-      <c r="I23" s="9" t="s">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D25" s="9"/>
+      <c r="I25" s="9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D24" s="9" t="s">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D26" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="I24" s="9" t="s">
+      <c r="I26" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D25" s="9" t="s">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D27" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="I25" s="9" t="s">
+      <c r="I27" s="9" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D26" s="9" t="s">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D28" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="I26" s="9"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D27" s="9" t="s">
+      <c r="I28" s="9"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D29" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="I27" s="9"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D28" s="9"/>
-      <c r="I28" s="9"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D29" s="9"/>
       <c r="I29" s="9"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D30" s="9"/>
       <c r="I30" s="9"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D31" s="9"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I31" s="9"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D32" s="9"/>
+      <c r="I32" s="9"/>
+    </row>
+    <row r="33" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D33" s="9"/>
+    </row>
+    <row r="34" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D34" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="17">
+    <mergeCell ref="G13:H14"/>
+    <mergeCell ref="B21:B22"/>
     <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B17:B18"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="G9:H10"/>
     <mergeCell ref="B5:B6"/>
@@ -3743,10 +3994,11 @@
     <mergeCell ref="G7:H8"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="G11:H12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="G13:H14"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="G15:H16"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="G17:H18"/>
+    <mergeCell ref="B13:B14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3754,10 +4006,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61E5C165-CC35-4B6C-959C-2E76B8D5E7AF}">
-  <dimension ref="A3:J32"/>
+  <dimension ref="A3:J34"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="G13" sqref="G13:H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3782,22 +4034,22 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="34" t="s">
+      <c r="C5" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="37"/>
-      <c r="J5" s="37"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B6" s="29"/>
+      <c r="B6" s="31"/>
       <c r="C6" s="2" t="s">
         <v>4</v>
       </c>
@@ -3819,7 +4071,7 @@
       <c r="A7" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="31" t="s">
         <v>18</v>
       </c>
       <c r="C7" s="10" t="s">
@@ -3834,10 +4086,10 @@
       <c r="F7" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="G7" s="30" t="s">
+      <c r="G7" s="36" t="s">
         <v>92</v>
       </c>
-      <c r="H7" s="31"/>
+      <c r="H7" s="37"/>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
@@ -3845,7 +4097,7 @@
       <c r="A8" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="29"/>
+      <c r="B8" s="31"/>
       <c r="C8" s="10" t="s">
         <v>115</v>
       </c>
@@ -3858,8 +4110,8 @@
       <c r="F8" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="G8" s="30"/>
-      <c r="H8" s="31"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="37"/>
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
     </row>
@@ -3867,7 +4119,7 @@
       <c r="A9" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="31" t="s">
         <v>20</v>
       </c>
       <c r="C9" s="10" t="s">
@@ -3882,10 +4134,10 @@
       <c r="F9" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="G9" s="30" t="s">
+      <c r="G9" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="H9" s="31"/>
+      <c r="H9" s="37"/>
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
@@ -3893,7 +4145,7 @@
       <c r="A10" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="29"/>
+      <c r="B10" s="31"/>
       <c r="C10" s="10" t="s">
         <v>155</v>
       </c>
@@ -3906,8 +4158,8 @@
       <c r="F10" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="G10" s="30"/>
-      <c r="H10" s="31"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="37"/>
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
     </row>
@@ -3915,7 +4167,7 @@
       <c r="A11" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="31" t="s">
         <v>21</v>
       </c>
       <c r="C11" s="10" t="s">
@@ -3930,10 +4182,10 @@
       <c r="F11" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="G11" s="30" t="s">
+      <c r="G11" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="H11" s="31"/>
+      <c r="H11" s="37"/>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
     </row>
@@ -3941,7 +4193,7 @@
       <c r="A12" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="29"/>
+      <c r="B12" s="31"/>
       <c r="C12" s="10" t="s">
         <v>189</v>
       </c>
@@ -3954,8 +4206,8 @@
       <c r="F12" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="G12" s="30"/>
-      <c r="H12" s="31"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="37"/>
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
     </row>
@@ -3963,244 +4215,293 @@
       <c r="A13" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="G13" s="32" t="s">
-        <v>94</v>
-      </c>
-      <c r="H13" s="33"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
+      <c r="B13" s="48" t="s">
+        <v>399</v>
+      </c>
+      <c r="C13" s="49" t="s">
+        <v>411</v>
+      </c>
+      <c r="D13" s="49" t="s">
+        <v>412</v>
+      </c>
+      <c r="E13" s="49" t="s">
+        <v>230</v>
+      </c>
+      <c r="F13" s="50" t="s">
+        <v>413</v>
+      </c>
+      <c r="G13" s="51" t="s">
+        <v>430</v>
+      </c>
+      <c r="H13" s="52"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="29"/>
-      <c r="C14" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="G14" s="32"/>
-      <c r="H14" s="33"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
+      <c r="B14" s="53"/>
+      <c r="C14" s="49" t="s">
+        <v>414</v>
+      </c>
+      <c r="D14" s="49" t="s">
+        <v>415</v>
+      </c>
+      <c r="E14" s="49" t="s">
+        <v>416</v>
+      </c>
+      <c r="F14" s="50" t="s">
+        <v>417</v>
+      </c>
+      <c r="G14" s="51"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="27"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="25" t="s">
-        <v>172</v>
-      </c>
-      <c r="D15" s="25" t="s">
-        <v>174</v>
-      </c>
-      <c r="E15" s="25" t="s">
-        <v>175</v>
-      </c>
-      <c r="F15" s="25" t="s">
-        <v>176</v>
-      </c>
-      <c r="G15" s="32" t="s">
-        <v>214</v>
-      </c>
-      <c r="H15" s="33"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
+      <c r="B15" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="G15" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="H15" s="39"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="29"/>
-      <c r="C16" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="G16" s="32"/>
-      <c r="H16" s="33"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B16" s="31"/>
+      <c r="C16" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="G16" s="38"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="29" t="s">
-        <v>327</v>
-      </c>
-      <c r="C17" s="22" t="s">
-        <v>336</v>
-      </c>
-      <c r="D17" s="22" t="s">
-        <v>337</v>
-      </c>
-      <c r="E17" s="22" t="s">
-        <v>338</v>
-      </c>
-      <c r="F17" s="22" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B17" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="D17" s="25" t="s">
+        <v>174</v>
+      </c>
+      <c r="E17" s="25" t="s">
+        <v>175</v>
+      </c>
+      <c r="F17" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="G17" s="38" t="s">
+        <v>214</v>
+      </c>
+      <c r="H17" s="39"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="29"/>
-      <c r="C18" s="22" t="s">
-        <v>352</v>
-      </c>
-      <c r="D18" s="22" t="s">
-        <v>353</v>
-      </c>
-      <c r="E18" s="22" t="s">
-        <v>354</v>
-      </c>
-      <c r="F18" s="22" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B18" s="31"/>
+      <c r="C18" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="G18" s="38"/>
+      <c r="H18" s="39"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="29" t="s">
-        <v>360</v>
-      </c>
-      <c r="C19" s="26" t="s">
-        <v>369</v>
-      </c>
-      <c r="D19" s="26" t="s">
-        <v>370</v>
-      </c>
-      <c r="E19" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="F19" s="26" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B19" s="31" t="s">
+        <v>327</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>336</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>337</v>
+      </c>
+      <c r="E19" s="22" t="s">
+        <v>338</v>
+      </c>
+      <c r="F19" s="22" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="29"/>
-      <c r="C20" s="26" t="s">
+      <c r="B20" s="31"/>
+      <c r="C20" s="22" t="s">
+        <v>352</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>353</v>
+      </c>
+      <c r="E20" s="22" t="s">
+        <v>354</v>
+      </c>
+      <c r="F20" s="22" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="31" t="s">
+        <v>360</v>
+      </c>
+      <c r="C21" s="26" t="s">
+        <v>369</v>
+      </c>
+      <c r="D21" s="26" t="s">
+        <v>370</v>
+      </c>
+      <c r="E21" s="26" t="s">
+        <v>371</v>
+      </c>
+      <c r="F21" s="26" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="31"/>
+      <c r="C22" s="26" t="s">
         <v>373</v>
       </c>
-      <c r="D20" s="26" t="s">
+      <c r="D22" s="26" t="s">
         <v>374</v>
       </c>
-      <c r="E20" s="26" t="s">
+      <c r="E22" s="26" t="s">
         <v>375</v>
       </c>
-      <c r="F20" s="26" t="s">
+      <c r="F22" s="26" t="s">
         <v>376</v>
       </c>
-      <c r="I20" s="9" t="s">
+      <c r="I22" s="9" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="I21" s="9"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D22" s="9" t="s">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I23" s="9"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D24" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="I22" s="9" t="s">
+      <c r="I24" s="9" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D23" s="9"/>
-      <c r="I23" s="9" t="s">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D25" s="9"/>
+      <c r="I25" s="9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D24" s="9" t="s">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D26" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="I24" s="9" t="s">
+      <c r="I26" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D25" s="9" t="s">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D27" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="I25" s="9" t="s">
+      <c r="I27" s="9" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D26" s="9" t="s">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D28" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="I26" s="9"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D27" s="9" t="s">
+      <c r="I28" s="9"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D29" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="I27" s="9"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D28" s="9"/>
-      <c r="I28" s="9"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D29" s="9"/>
       <c r="I29" s="9"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D30" s="9"/>
       <c r="I30" s="9"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D31" s="9"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I31" s="9"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D32" s="9"/>
+      <c r="I32" s="9"/>
+    </row>
+    <row r="33" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D33" s="9"/>
+    </row>
+    <row r="34" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D34" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="17">
+    <mergeCell ref="G13:H14"/>
+    <mergeCell ref="B21:B22"/>
     <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B17:B18"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="G9:H10"/>
     <mergeCell ref="B5:B6"/>
@@ -4210,10 +4511,11 @@
     <mergeCell ref="G7:H8"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="G11:H12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="G13:H14"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="G15:H16"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="G17:H18"/>
+    <mergeCell ref="B13:B14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4221,10 +4523,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55FC768F-9925-423C-8CB8-7B0AC8AB7AFE}">
-  <dimension ref="A3:J30"/>
+  <dimension ref="A3:J32"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13:H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4251,22 +4553,22 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="41" t="s">
+      <c r="C5" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="44"/>
-      <c r="J5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="47"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B6" s="38"/>
+      <c r="B6" s="41"/>
       <c r="C6" s="13" t="s">
         <v>4</v>
       </c>
@@ -4288,7 +4590,7 @@
       <c r="A7" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="41" t="s">
         <v>18</v>
       </c>
       <c r="C7" s="13" t="s">
@@ -4303,10 +4605,10 @@
       <c r="F7" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="G7" s="39" t="s">
+      <c r="G7" s="42" t="s">
         <v>92</v>
       </c>
-      <c r="H7" s="40"/>
+      <c r="H7" s="43"/>
       <c r="I7" s="16"/>
       <c r="J7" s="16"/>
     </row>
@@ -4314,7 +4616,7 @@
       <c r="A8" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="38"/>
+      <c r="B8" s="41"/>
       <c r="C8" s="13" t="s">
         <v>123</v>
       </c>
@@ -4327,8 +4629,8 @@
       <c r="F8" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="G8" s="39"/>
-      <c r="H8" s="40"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="43"/>
       <c r="I8" s="16"/>
       <c r="J8" s="16"/>
     </row>
@@ -4336,7 +4638,7 @@
       <c r="A9" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="38" t="s">
+      <c r="B9" s="41" t="s">
         <v>20</v>
       </c>
       <c r="C9" s="13" t="s">
@@ -4351,10 +4653,10 @@
       <c r="F9" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="G9" s="39" t="s">
+      <c r="G9" s="42" t="s">
         <v>91</v>
       </c>
-      <c r="H9" s="40"/>
+      <c r="H9" s="43"/>
       <c r="I9" s="16"/>
       <c r="J9" s="16"/>
     </row>
@@ -4362,7 +4664,7 @@
       <c r="A10" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="38"/>
+      <c r="B10" s="41"/>
       <c r="C10" s="13" t="s">
         <v>163</v>
       </c>
@@ -4375,8 +4677,8 @@
       <c r="F10" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="G10" s="39"/>
-      <c r="H10" s="40"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="43"/>
       <c r="I10" s="16"/>
       <c r="J10" s="16"/>
     </row>
@@ -4384,7 +4686,7 @@
       <c r="A11" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="38" t="s">
+      <c r="B11" s="41" t="s">
         <v>21</v>
       </c>
       <c r="C11" s="13" t="s">
@@ -4399,10 +4701,10 @@
       <c r="F11" s="13" t="s">
         <v>196</v>
       </c>
-      <c r="G11" s="39" t="s">
+      <c r="G11" s="42" t="s">
         <v>93</v>
       </c>
-      <c r="H11" s="40"/>
+      <c r="H11" s="43"/>
       <c r="I11" s="16"/>
       <c r="J11" s="16"/>
     </row>
@@ -4410,7 +4712,7 @@
       <c r="A12" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="38"/>
+      <c r="B12" s="41"/>
       <c r="C12" s="13" t="s">
         <v>197</v>
       </c>
@@ -4423,246 +4725,295 @@
       <c r="F12" s="13" t="s">
         <v>200</v>
       </c>
-      <c r="G12" s="39"/>
-      <c r="H12" s="40"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="43"/>
       <c r="I12" s="16"/>
       <c r="J12" s="16"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="12" t="s">
+      <c r="A13" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="F13" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="G13" s="39" t="s">
-        <v>94</v>
-      </c>
-      <c r="H13" s="40"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
+      <c r="B13" s="48" t="s">
+        <v>399</v>
+      </c>
+      <c r="C13" s="49" t="s">
+        <v>418</v>
+      </c>
+      <c r="D13" s="49" t="s">
+        <v>419</v>
+      </c>
+      <c r="E13" s="49" t="s">
+        <v>420</v>
+      </c>
+      <c r="F13" s="50" t="s">
+        <v>421</v>
+      </c>
+      <c r="G13" s="51" t="s">
+        <v>430</v>
+      </c>
+      <c r="H13" s="52"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="12" t="s">
+      <c r="A14" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="38"/>
-      <c r="C14" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="F14" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="G14" s="39"/>
-      <c r="H14" s="40"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
+      <c r="B14" s="53"/>
+      <c r="C14" s="49" t="s">
+        <v>422</v>
+      </c>
+      <c r="D14" s="49" t="s">
+        <v>423</v>
+      </c>
+      <c r="E14" s="49" t="s">
+        <v>424</v>
+      </c>
+      <c r="F14" s="50" t="s">
+        <v>425</v>
+      </c>
+      <c r="G14" s="51"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="28"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>248</v>
-      </c>
-      <c r="D15" s="17" t="s">
-        <v>249</v>
-      </c>
-      <c r="E15" s="17" t="s">
-        <v>250</v>
-      </c>
-      <c r="F15" s="17" t="s">
-        <v>251</v>
-      </c>
-      <c r="G15" s="39" t="s">
-        <v>34</v>
-      </c>
-      <c r="H15" s="40"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
+      <c r="B15" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="G15" s="42" t="s">
+        <v>94</v>
+      </c>
+      <c r="H15" s="43"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="38"/>
-      <c r="C16" s="19" t="s">
+      <c r="B16" s="41"/>
+      <c r="C16" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" s="42"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>248</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>249</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>250</v>
+      </c>
+      <c r="F17" s="17" t="s">
+        <v>251</v>
+      </c>
+      <c r="G17" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="H17" s="43"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="41"/>
+      <c r="C18" s="19" t="s">
         <v>278</v>
       </c>
-      <c r="D16" s="19" t="s">
+      <c r="D18" s="19" t="s">
         <v>279</v>
       </c>
-      <c r="E16" s="19" t="s">
+      <c r="E18" s="19" t="s">
         <v>280</v>
       </c>
-      <c r="F16" s="20" t="s">
+      <c r="F18" s="20" t="s">
         <v>277</v>
       </c>
-      <c r="G16" s="39"/>
-      <c r="H16" s="40"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="29" t="s">
-        <v>327</v>
-      </c>
-      <c r="C17" s="22" t="s">
-        <v>340</v>
-      </c>
-      <c r="D17" s="22" t="s">
-        <v>341</v>
-      </c>
-      <c r="E17" s="22" t="s">
-        <v>342</v>
-      </c>
-      <c r="F17" s="22" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="29"/>
-      <c r="C18" s="22" t="s">
-        <v>356</v>
-      </c>
-      <c r="D18" s="22" t="s">
-        <v>357</v>
-      </c>
-      <c r="E18" s="22" t="s">
-        <v>358</v>
-      </c>
-      <c r="F18" s="22" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G18" s="42"/>
+      <c r="H18" s="43"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="29" t="s">
-        <v>360</v>
-      </c>
-      <c r="C19" s="26" t="s">
-        <v>365</v>
-      </c>
-      <c r="D19" s="26" t="s">
-        <v>366</v>
-      </c>
-      <c r="E19" s="26" t="s">
-        <v>367</v>
-      </c>
-      <c r="F19" s="26" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B19" s="31" t="s">
+        <v>327</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>340</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>341</v>
+      </c>
+      <c r="E19" s="22" t="s">
+        <v>342</v>
+      </c>
+      <c r="F19" s="22" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="29"/>
-      <c r="C20" s="26" t="s">
+      <c r="B20" s="31"/>
+      <c r="C20" s="22" t="s">
+        <v>356</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>357</v>
+      </c>
+      <c r="E20" s="22" t="s">
+        <v>358</v>
+      </c>
+      <c r="F20" s="22" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="31" t="s">
+        <v>360</v>
+      </c>
+      <c r="C21" s="26" t="s">
+        <v>365</v>
+      </c>
+      <c r="D21" s="26" t="s">
+        <v>366</v>
+      </c>
+      <c r="E21" s="26" t="s">
+        <v>367</v>
+      </c>
+      <c r="F21" s="26" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="31"/>
+      <c r="C22" s="26" t="s">
         <v>361</v>
       </c>
-      <c r="D20" s="26" t="s">
+      <c r="D22" s="26" t="s">
         <v>362</v>
       </c>
-      <c r="E20" s="26" t="s">
+      <c r="E22" s="26" t="s">
         <v>363</v>
       </c>
-      <c r="F20" s="26" t="s">
+      <c r="F22" s="26" t="s">
         <v>364</v>
       </c>
-      <c r="I20" s="21" t="s">
+      <c r="I22" s="21" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D21" s="21"/>
-      <c r="I21" s="21"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D22" s="21" t="s">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D23" s="21"/>
+      <c r="I23" s="21"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D24" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="I22" s="21" t="s">
+      <c r="I24" s="21" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D23" s="21" t="s">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D25" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="I23" s="21" t="s">
+      <c r="I25" s="21" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D24" s="21" t="s">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D26" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="I24" s="21" t="s">
+      <c r="I26" s="21" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D25" s="21" t="s">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D27" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="I25" s="21" t="s">
+      <c r="I27" s="21" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D26" s="21"/>
-      <c r="I26" s="21"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D27" s="21"/>
-      <c r="I27" s="21"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D28" s="21"/>
       <c r="I28" s="21"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D29" s="21"/>
       <c r="I29" s="21"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D30" s="21"/>
       <c r="I30" s="21"/>
     </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D31" s="21"/>
+      <c r="I31" s="21"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D32" s="21"/>
+      <c r="I32" s="21"/>
+    </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="17">
+    <mergeCell ref="G13:H14"/>
+    <mergeCell ref="B21:B22"/>
     <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B17:B18"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="G9:H10"/>
     <mergeCell ref="B5:B6"/>
@@ -4672,10 +5023,11 @@
     <mergeCell ref="G7:H8"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="G11:H12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="G13:H14"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="G15:H16"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="G17:H18"/>
+    <mergeCell ref="B13:B14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/SA/results/SummarySA.xlsx
+++ b/SA/results/SummarySA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\w63x712\Documents\Machine_Learning\HSI_selection2\SA\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60894E68-E151-442B-8688-DE5C753B6A1B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55D11DDA-4439-43A8-A892-1D816B9F8925}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="20640" windowHeight="11160" firstSheet="1" activeTab="5" xr2:uid="{D4E1857A-7969-4B6E-A5E0-8AB94818FDA4}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="20640" windowHeight="11160" firstSheet="1" activeTab="1" xr2:uid="{D4E1857A-7969-4B6E-A5E0-8AB94818FDA4}"/>
   </bookViews>
   <sheets>
     <sheet name="200 bands" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="433">
   <si>
     <t>SVM</t>
   </si>
@@ -1241,84 +1241,6 @@
     <t>SR-SSIM</t>
   </si>
   <si>
-    <t>97.635% (+/- 0.237%)</t>
-  </si>
-  <si>
-    <t>98.951% (+/- 0.107%)</t>
-  </si>
-  <si>
-    <t>98.974% (+/- 0.100%)</t>
-  </si>
-  <si>
-    <t>98.961% (+/- 0.102%)</t>
-  </si>
-  <si>
-    <t>97.227% (+/- 0.295%)</t>
-  </si>
-  <si>
-    <t>98.640% (+/- 0.309%)</t>
-  </si>
-  <si>
-    <t>98.714% (+/- 0.177%)</t>
-  </si>
-  <si>
-    <t>98.670% (+/- 0.240%)</t>
-  </si>
-  <si>
-    <t>97.103% (+/- 0.191%)</t>
-  </si>
-  <si>
-    <t>98.702% (+/- 0.104%)</t>
-  </si>
-  <si>
-    <t>98.667% (+/- 0.111%)</t>
-  </si>
-  <si>
-    <t>96.610% (+/- 0.223%)</t>
-  </si>
-  <si>
-    <t>98.284% (+/- 0.141%)</t>
-  </si>
-  <si>
-    <t>98.307% (+/- 0.110%)</t>
-  </si>
-  <si>
-    <t>96.567% (+/- 0.228%)</t>
-  </si>
-  <si>
-    <t>98.351% (+/- 0.146%)</t>
-  </si>
-  <si>
-    <t>98.399% (+/- 0.141%)</t>
-  </si>
-  <si>
-    <t>98.370% (+/- 0.135%)</t>
-  </si>
-  <si>
-    <t>95.435% (+/- 0.382%)</t>
-  </si>
-  <si>
-    <t>97.532% (+/- 0.300%)</t>
-  </si>
-  <si>
-    <t>97.462% (+/- 0.352%)</t>
-  </si>
-  <si>
-    <t>97.464% (+/- 0.303%)</t>
-  </si>
-  <si>
-    <t>95.343% (+/- 0.258%)</t>
-  </si>
-  <si>
-    <t>97.527% (+/- 0.304%)</t>
-  </si>
-  <si>
-    <t>97.531% (+/- 0.200%)</t>
-  </si>
-  <si>
-    <t>97.509% (+/- 0.247%)</t>
-  </si>
-  <si>
     <t>97.888% (+/- 0.216%)</t>
   </si>
   <si>
@@ -1332,6 +1254,90 @@
   </si>
   <si>
     <t>selection=[5, 47, 61, 81, 201]</t>
+  </si>
+  <si>
+    <t>98.140% (+/- 0.210%)</t>
+  </si>
+  <si>
+    <t>99.176% (+/- 0.117%)</t>
+  </si>
+  <si>
+    <t>99.183% (+/- 0.087%)</t>
+  </si>
+  <si>
+    <t>99.178% (+/- 0.100%)</t>
+  </si>
+  <si>
+    <t>97.432% (+/- 0.223%)</t>
+  </si>
+  <si>
+    <t>98.903% (+/- 0.125%)</t>
+  </si>
+  <si>
+    <t>98.887% (+/- 0.120%)</t>
+  </si>
+  <si>
+    <t>98.894% (+/- 0.121%)</t>
+  </si>
+  <si>
+    <t>97.850% (+/- 0.181%)</t>
+  </si>
+  <si>
+    <t>99.059% (+/- 0.118%)</t>
+  </si>
+  <si>
+    <t>99.035% (+/- 0.137%)</t>
+  </si>
+  <si>
+    <t>99.045% (+/- 0.125%)</t>
+  </si>
+  <si>
+    <t>96.705% (+/- 0.230%)</t>
+  </si>
+  <si>
+    <t>98.561% (+/- 0.104%)</t>
+  </si>
+  <si>
+    <t>98.534% (+/- 0.134%)</t>
+  </si>
+  <si>
+    <t>98.542% (+/- 0.113%)</t>
+  </si>
+  <si>
+    <t>97.057% (+/- 0.320%)</t>
+  </si>
+  <si>
+    <t>98.697% (+/- 0.162%)</t>
+  </si>
+  <si>
+    <t>98.677% (+/- 0.159%)</t>
+  </si>
+  <si>
+    <t>98.685% (+/- 0.157%)</t>
+  </si>
+  <si>
+    <t>95.386% (+/- 0.306%)</t>
+  </si>
+  <si>
+    <t>97.801% (+/- 0.229%)</t>
+  </si>
+  <si>
+    <t>97.626% (+/- 0.266%)</t>
+  </si>
+  <si>
+    <t>97.697% (+/- 0.246%)</t>
+  </si>
+  <si>
+    <t>95.721% (+/- 0.424%)</t>
+  </si>
+  <si>
+    <t>97.928% (+/- 0.235%)</t>
+  </si>
+  <si>
+    <t>97.829% (+/- 0.264%)</t>
+  </si>
+  <si>
+    <t>97.870% (+/- 0.243%)</t>
   </si>
 </sst>
 </file>
@@ -2021,7 +2027,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{448D17FE-18CC-46F5-BAC3-3C9188DFBB42}">
   <dimension ref="B3:G72"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
@@ -2882,7 +2888,7 @@
   <dimension ref="A3:J44"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13:H14"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3092,19 +3098,19 @@
         <v>399</v>
       </c>
       <c r="C13" s="49" t="s">
-        <v>426</v>
+        <v>400</v>
       </c>
       <c r="D13" s="49" t="s">
-        <v>427</v>
+        <v>401</v>
       </c>
       <c r="E13" s="49" t="s">
-        <v>428</v>
+        <v>402</v>
       </c>
       <c r="F13" s="50" t="s">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="G13" s="51" t="s">
-        <v>430</v>
+        <v>404</v>
       </c>
       <c r="H13" s="52"/>
       <c r="I13" s="27"/>
@@ -3116,16 +3122,16 @@
       </c>
       <c r="B14" s="53"/>
       <c r="C14" s="49" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="D14" s="49" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="E14" s="49" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="F14" s="50" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="G14" s="51"/>
       <c r="H14" s="52"/>
@@ -3492,7 +3498,7 @@
   <dimension ref="A3:J34"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13:H14"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3702,19 +3708,19 @@
         <v>399</v>
       </c>
       <c r="C13" s="49" t="s">
+        <v>409</v>
+      </c>
+      <c r="D13" s="49" t="s">
+        <v>410</v>
+      </c>
+      <c r="E13" s="49" t="s">
+        <v>411</v>
+      </c>
+      <c r="F13" s="50" t="s">
+        <v>412</v>
+      </c>
+      <c r="G13" s="51" t="s">
         <v>404</v>
-      </c>
-      <c r="D13" s="49" t="s">
-        <v>405</v>
-      </c>
-      <c r="E13" s="49" t="s">
-        <v>406</v>
-      </c>
-      <c r="F13" s="50" t="s">
-        <v>407</v>
-      </c>
-      <c r="G13" s="51" t="s">
-        <v>430</v>
       </c>
       <c r="H13" s="52"/>
       <c r="I13" s="27"/>
@@ -3726,16 +3732,16 @@
       </c>
       <c r="B14" s="53"/>
       <c r="C14" s="49" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="D14" s="49" t="s">
-        <v>156</v>
+        <v>414</v>
       </c>
       <c r="E14" s="49" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="F14" s="50" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="G14" s="51"/>
       <c r="H14" s="52"/>
@@ -4009,7 +4015,7 @@
   <dimension ref="A3:J34"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13:H14"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4219,19 +4225,19 @@
         <v>399</v>
       </c>
       <c r="C13" s="49" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="D13" s="49" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="E13" s="49" t="s">
-        <v>230</v>
+        <v>419</v>
       </c>
       <c r="F13" s="50" t="s">
-        <v>413</v>
+        <v>420</v>
       </c>
       <c r="G13" s="51" t="s">
-        <v>430</v>
+        <v>404</v>
       </c>
       <c r="H13" s="52"/>
       <c r="I13" s="27"/>
@@ -4243,16 +4249,16 @@
       </c>
       <c r="B14" s="53"/>
       <c r="C14" s="49" t="s">
-        <v>414</v>
+        <v>421</v>
       </c>
       <c r="D14" s="49" t="s">
-        <v>415</v>
+        <v>422</v>
       </c>
       <c r="E14" s="49" t="s">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="F14" s="50" t="s">
-        <v>417</v>
+        <v>424</v>
       </c>
       <c r="G14" s="51"/>
       <c r="H14" s="52"/>
@@ -4525,8 +4531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55FC768F-9925-423C-8CB8-7B0AC8AB7AFE}">
   <dimension ref="A3:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13:H14"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4738,19 +4744,19 @@
         <v>399</v>
       </c>
       <c r="C13" s="49" t="s">
-        <v>418</v>
+        <v>425</v>
       </c>
       <c r="D13" s="49" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="E13" s="49" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="F13" s="50" t="s">
-        <v>421</v>
+        <v>428</v>
       </c>
       <c r="G13" s="51" t="s">
-        <v>430</v>
+        <v>404</v>
       </c>
       <c r="H13" s="52"/>
       <c r="I13" s="28"/>
@@ -4762,16 +4768,16 @@
       </c>
       <c r="B14" s="53"/>
       <c r="C14" s="49" t="s">
-        <v>422</v>
+        <v>429</v>
       </c>
       <c r="D14" s="49" t="s">
-        <v>423</v>
+        <v>430</v>
       </c>
       <c r="E14" s="49" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="F14" s="50" t="s">
-        <v>425</v>
+        <v>432</v>
       </c>
       <c r="G14" s="51"/>
       <c r="H14" s="52"/>
